--- a/content/docs/simple_financial_model.xlsx
+++ b/content/docs/simple_financial_model.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27710"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pitosalas/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882042BD-6242-4540-BCB1-4A36922E0A35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="2780" windowWidth="35220" windowHeight="18380" tabRatio="293" activeTab="1"/>
+    <workbookView xWindow="12560" yWindow="3860" windowWidth="38760" windowHeight="20300" tabRatio="293" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Model &quot;Paid Engine&quot;" sheetId="1" r:id="rId1"/>
-    <sheet name="Model &quot;Sticky Engine" sheetId="2" r:id="rId2"/>
+    <sheet name="Simple Model" sheetId="1" r:id="rId1"/>
+    <sheet name="Complicated Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>Customers</t>
   </si>
@@ -99,9 +100,6 @@
     <t>Monthly Variable Cost per employee (fully loaded)</t>
   </si>
   <si>
-    <t>Problems with this model</t>
-  </si>
-  <si>
     <t>Current Customers</t>
   </si>
   <si>
@@ -129,9 +127,6 @@
     <t>Fixed Costs</t>
   </si>
   <si>
-    <t>Total Revenue</t>
-  </si>
-  <si>
     <t>Monthly Marketing Costs</t>
   </si>
   <si>
@@ -171,9 +166,6 @@
     <t>Checking Account</t>
   </si>
   <si>
-    <t>Product monthly subscription</t>
-  </si>
-  <si>
     <t>Monthly % growth</t>
   </si>
   <si>
@@ -193,12 +185,18 @@
   </si>
   <si>
     <t>Change in month churn each month</t>
+  </si>
+  <si>
+    <t>Product Price</t>
+  </si>
+  <si>
+    <t>Revenue this month</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -580,12 +578,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -604,7 +605,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.395550998410581"/>
-          <c:y val="0.0"/>
+          <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -620,7 +621,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model "Paid Engine"'!$A$10</c:f>
+              <c:f>'Simple Model'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -634,86 +635,91 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Model "Paid Engine"'!$B$10:$Y$10</c:f>
+              <c:f>'Simple Model'!$B$10:$Y$10</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>45328.33333333334</c:v>
+                  <c:v>52333.333333333336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40904.16666666667</c:v>
+                  <c:v>50916.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36851.25000000001</c:v>
+                  <c:v>51375.000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33243.83333333334</c:v>
+                  <c:v>52958.333333333343</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26093.45000000001</c:v>
+                  <c:v>53075.000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19597.95166666668</c:v>
+                  <c:v>53664.166666666679</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13953.80383333335</c:v>
+                  <c:v>57230.083333333343</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9416.411650000013</c:v>
+                  <c:v>64665.775000000016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6317.80181166668</c:v>
+                  <c:v>77132.174166666679</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4466.136672333347</c:v>
+                  <c:v>86691.942333333354</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-55.86149486664999</c:v>
+                  <c:v>95863.664133333354</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3680.059478786648</c:v>
+                  <c:v>95966.697213333377</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6316.677261098643</c:v>
+                  <c:v>97430.033601333402</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-8410.125932526236</c:v>
+                  <c:v>92159.868614733423</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-9933.24703752521</c:v>
+                  <c:v>87301.19537880343</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-10857.52419777413</c:v>
+                  <c:v>82874.588481076935</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-11153.0152160355</c:v>
+                  <c:v>78901.651238464125</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-10788.28078520994</c:v>
+                  <c:v>75405.067133720673</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-9730.309632843091</c:v>
+                  <c:v>72408.653823740067</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7944.439922857904</c:v>
+                  <c:v>69937.419848260412</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-5394.276727373457</c:v>
+                  <c:v>68017.624174006763</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2041.605372114787</c:v>
+                  <c:v>66676.838716040453</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2153.699550906818</c:v>
+                  <c:v>65944.013985175829</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7233.769720079504</c:v>
+                  <c:v>65849.548017767986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F7C-5A4E-B3D4-BED0A5E24CCC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -767,14 +773,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -788,7 +794,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -799,9 +804,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.103740824769785"/>
-          <c:y val="0.134933333333333"/>
-          <c:w val="0.636372169580497"/>
-          <c:h val="0.811644724409449"/>
+          <c:y val="0.13493333333333299"/>
+          <c:w val="0.63637216958049703"/>
+          <c:h val="0.81164472440944901"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -812,7 +817,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model "Sticky Engine'!$A$19</c:f>
+              <c:f>'Complicated Model'!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -826,86 +831,91 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Model "Sticky Engine'!$B$19:$Y$19</c:f>
+              <c:f>'Complicated Model'!$B$19:$Y$19</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>150000.0</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121200.0</c:v>
+                  <c:v>121200</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>95938.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73829.8809375</c:v>
+                  <c:v>73829.880937499998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54677.55284217773</c:v>
+                  <c:v>54677.552842177734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38419.52455027811</c:v>
+                  <c:v>38419.524550278118</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25094.01953996541</c:v>
+                  <c:v>25094.019539965408</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14817.74625625217</c:v>
+                  <c:v>14817.746256252169</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7772.328433356666</c:v>
+                  <c:v>7772.3284333566662</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4196.11746817955</c:v>
+                  <c:v>4196.1174681795492</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4379.644519076417</c:v>
+                  <c:v>4379.6445190764171</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8663.605703622012</c:v>
+                  <c:v>8663.6057036220118</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17438.67053524661</c:v>
+                  <c:v>17438.670535246612</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31146.65543387868</c:v>
+                  <c:v>31146.655433878677</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50282.76641398878</c:v>
+                  <c:v>50282.766413988778</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75398.7214076335</c:v>
+                  <c:v>75398.721407633508</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>107106.6336106824</c:v>
+                  <c:v>107106.63361068236</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>146083.5854573999</c:v>
+                  <c:v>146083.58545739989</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>193076.85632573</c:v>
+                  <c:v>193076.85632573004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>248909.790948335</c:v>
+                  <c:v>248909.79094833502</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>314488.313043337</c:v>
+                  <c:v>314488.31304333702</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>390808.1020367817</c:v>
+                  <c:v>390808.10203678173</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>478962.4613534566</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>580150.9155633064</c:v>
+                  <c:v>580150.91556330642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7507-C84F-8F06-E43E70804975}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -940,7 +950,7 @@
         <c:axId val="-110472528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="300000.0"/>
+          <c:max val="300000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -960,14 +970,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -981,7 +991,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -995,7 +1004,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model "Sticky Engine'!$A$18</c:f>
+              <c:f>'Complicated Model'!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1009,86 +1018,91 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Model "Sticky Engine'!$B$18:$Y$18</c:f>
+              <c:f>'Complicated Model'!$B$18:$Y$18</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-28800.0</c:v>
+                  <c:v>-28800</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-25261.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-22108.6190625</c:v>
+                  <c:v>-22108.619062499998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-19152.32809532226</c:v>
+                  <c:v>-19152.328095322264</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-16258.02829189962</c:v>
+                  <c:v>-16258.028291899616</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-13325.50501031271</c:v>
+                  <c:v>-13325.505010312711</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-10276.27328371324</c:v>
+                  <c:v>-10276.273283713239</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7045.417822895502</c:v>
+                  <c:v>-7045.4178228955025</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-3576.210965177117</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>183.5270508968679</c:v>
+                  <c:v>183.52705089686788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4283.961184545594</c:v>
+                  <c:v>4283.9611845455947</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8775.064831624601</c:v>
+                  <c:v>8775.0648316246006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13707.98489863206</c:v>
+                  <c:v>13707.984898632065</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19136.1109801101</c:v>
+                  <c:v>19136.110980110105</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25115.95499364474</c:v>
+                  <c:v>25115.954993644737</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31707.91220304885</c:v>
+                  <c:v>31707.912203048851</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38976.95184671752</c:v>
+                  <c:v>38976.951846717522</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>46993.27086833013</c:v>
+                  <c:v>46993.270868330132</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>55832.934622605</c:v>
+                  <c:v>55832.934622604997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>65578.522095002</c:v>
+                  <c:v>65578.522095002001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>76319.7889934447</c:v>
+                  <c:v>76319.788993444701</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>88154.3593166749</c:v>
+                  <c:v>88154.359316674905</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>101188.4542098498</c:v>
+                  <c:v>101188.45420984982</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>115537.6657786386</c:v>
+                  <c:v>115537.66577863859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F13-0D4D-8F3E-14AD3C7E6D9A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1123,7 +1137,7 @@
         <c:axId val="-110449152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100000.0"/>
+          <c:max val="100000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1143,7 +1157,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1153,20 +1167,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1752600</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>254000</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1201,7 +1221,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1231,7 +1257,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1570,11 +1602,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1586,7 +1618,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1620,19 +1652,19 @@
         <v>3</v>
       </c>
       <c r="I2" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="M2" s="26" t="s">
         <v>50</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>53</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>17</v>
@@ -1656,19 +1688,19 @@
         <v>3</v>
       </c>
       <c r="U2" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="Y2" s="26" t="s">
         <v>50</v>
-      </c>
-      <c r="W2" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="X2" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y2" s="26" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -1773,7 +1805,7 @@
     </row>
     <row r="4" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" s="16">
         <v>0.5</v>
@@ -1850,103 +1882,103 @@
     </row>
     <row r="5" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B5" s="17">
-        <f t="shared" ref="B5:Y5" si="1">B3*$D$16</f>
-        <v>495</v>
+        <f>B3*D29</f>
+        <v>7500</v>
       </c>
       <c r="C5" s="17">
-        <f t="shared" si="1"/>
-        <v>742.5</v>
+        <f>(C3-B3)*$D$29</f>
+        <v>3750</v>
       </c>
       <c r="D5" s="17">
-        <f t="shared" si="1"/>
-        <v>1113.75</v>
+        <f>(D3-C3)*$D$29</f>
+        <v>5625</v>
       </c>
       <c r="E5" s="17">
-        <f t="shared" si="1"/>
-        <v>1559.25</v>
+        <f>(E3-D3)*$D$29</f>
+        <v>6750</v>
       </c>
       <c r="F5" s="17">
-        <f t="shared" si="1"/>
-        <v>2182.9500000000003</v>
+        <f>(F3-E3)*$D$29</f>
+        <v>9450</v>
       </c>
       <c r="G5" s="17">
-        <f t="shared" si="1"/>
-        <v>2837.8350000000005</v>
+        <f>(G3-F3)*$D$29</f>
+        <v>9922.5000000000055</v>
       </c>
       <c r="H5" s="17">
-        <f t="shared" si="1"/>
-        <v>3689.1855000000005</v>
+        <f>(H3-G3)*$D$29</f>
+        <v>12899.25</v>
       </c>
       <c r="I5" s="17">
-        <f t="shared" si="1"/>
-        <v>4795.9411500000015</v>
+        <f>(I3-H3)*$D$29</f>
+        <v>16769.025000000009</v>
       </c>
       <c r="J5" s="17">
-        <f t="shared" si="1"/>
-        <v>6234.7234950000011</v>
+        <f>(J3-I3)*$D$29</f>
+        <v>21799.732499999998</v>
       </c>
       <c r="K5" s="17">
-        <f t="shared" si="1"/>
-        <v>7481.6681940000017</v>
+        <f>(K3-J3)*$D$29</f>
+        <v>18893.101500000004</v>
       </c>
       <c r="L5" s="17">
-        <f t="shared" si="1"/>
-        <v>8978.0018328000024</v>
-      </c>
-      <c r="M5" s="24">
-        <f t="shared" si="1"/>
-        <v>9875.8020160800024</v>
+        <f>(L3-K3)*$D$29</f>
+        <v>22671.721799999999</v>
+      </c>
+      <c r="M5" s="17">
+        <f>(M3-L3)*$D$29</f>
+        <v>13603.033080000017</v>
       </c>
       <c r="N5" s="17">
-        <f t="shared" si="1"/>
-        <v>10863.382217688004</v>
+        <f>(N3-M3)*$D$29</f>
+        <v>14963.336388000027</v>
       </c>
       <c r="O5" s="17">
-        <f t="shared" si="1"/>
-        <v>11406.551328572406</v>
+        <f>(O3-N3)*$D$29</f>
+        <v>8229.8350134000211</v>
       </c>
       <c r="P5" s="17">
-        <f t="shared" si="1"/>
-        <v>11976.878895001026</v>
+        <f>(P3-O3)*$D$29</f>
+        <v>8641.3267640700033</v>
       </c>
       <c r="Q5" s="17">
-        <f t="shared" si="1"/>
-        <v>12575.722839751077</v>
+        <f>(Q3-P3)*$D$29</f>
+        <v>9073.3931022735087</v>
       </c>
       <c r="R5" s="17">
-        <f t="shared" si="1"/>
-        <v>13204.508981738632</v>
+        <f>(R3-Q3)*$D$29</f>
+        <v>9527.0627573871934</v>
       </c>
       <c r="S5" s="17">
-        <f t="shared" si="1"/>
-        <v>13864.734430825565</v>
+        <f>(S3-R3)*$D$29</f>
+        <v>10003.415895256547</v>
       </c>
       <c r="T5" s="17">
-        <f t="shared" si="1"/>
-        <v>14557.971152366845</v>
+        <f>(T3-S3)*$D$29</f>
+        <v>10503.586690019392</v>
       </c>
       <c r="U5" s="17">
-        <f t="shared" si="1"/>
-        <v>15285.869709985187</v>
+        <f>(U3-T3)*$D$29</f>
+        <v>11028.766024520348</v>
       </c>
       <c r="V5" s="17">
-        <f t="shared" si="1"/>
-        <v>16050.163195484447</v>
+        <f>(V3-U3)*$D$29</f>
+        <v>11580.204325746354</v>
       </c>
       <c r="W5" s="17">
-        <f t="shared" si="1"/>
-        <v>16852.67135525867</v>
+        <f>(W3-V3)*$D$29</f>
+        <v>12159.214542033693</v>
       </c>
       <c r="X5" s="17">
-        <f t="shared" si="1"/>
-        <v>17695.304923021606</v>
-      </c>
-      <c r="Y5" s="24">
-        <f t="shared" si="1"/>
-        <v>18580.070169172686</v>
+        <f>(X3-W3)*$D$29</f>
+        <v>12767.175269135372</v>
+      </c>
+      <c r="Y5" s="17">
+        <f>(Y3-X3)*$D$29</f>
+        <v>13405.534032592152</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2031,99 +2063,99 @@
         <v>6</v>
       </c>
       <c r="B7" s="17">
-        <f t="shared" ref="B7:Y7" si="2">B6*$D$18</f>
+        <f>B6*$D$31</f>
         <v>4166.666666666667</v>
       </c>
       <c r="C7" s="17">
-        <f t="shared" si="2"/>
+        <f>C6*$D$31</f>
         <v>4166.666666666667</v>
       </c>
       <c r="D7" s="17">
-        <f t="shared" si="2"/>
+        <f>D6*$D$31</f>
         <v>4166.666666666667</v>
       </c>
       <c r="E7" s="17">
-        <f t="shared" si="2"/>
+        <f>E6*$D$31</f>
         <v>4166.666666666667</v>
       </c>
       <c r="F7" s="17">
-        <f t="shared" si="2"/>
+        <f>F6*$D$31</f>
         <v>8333.3333333333339</v>
       </c>
       <c r="G7" s="17">
-        <f t="shared" si="2"/>
+        <f>G6*$D$31</f>
         <v>8333.3333333333339</v>
       </c>
       <c r="H7" s="17">
-        <f t="shared" si="2"/>
+        <f>H6*$D$31</f>
         <v>8333.3333333333339</v>
       </c>
       <c r="I7" s="17">
-        <f t="shared" si="2"/>
+        <f>I6*$D$31</f>
         <v>8333.3333333333339</v>
       </c>
       <c r="J7" s="17">
-        <f t="shared" si="2"/>
+        <f>J6*$D$31</f>
         <v>8333.3333333333339</v>
       </c>
       <c r="K7" s="17">
-        <f t="shared" si="2"/>
+        <f>K6*$D$31</f>
         <v>8333.3333333333339</v>
       </c>
       <c r="L7" s="17">
-        <f t="shared" si="2"/>
+        <f>L6*$D$31</f>
         <v>12500</v>
       </c>
       <c r="M7" s="24">
-        <f t="shared" si="2"/>
+        <f>M6*$D$31</f>
         <v>12500</v>
       </c>
       <c r="N7" s="17">
-        <f t="shared" si="2"/>
+        <f>N6*$D$31</f>
         <v>12500</v>
       </c>
       <c r="O7" s="17">
-        <f t="shared" si="2"/>
+        <f>O6*$D$31</f>
         <v>12500</v>
       </c>
       <c r="P7" s="17">
-        <f t="shared" si="2"/>
+        <f>P6*$D$31</f>
         <v>12500</v>
       </c>
       <c r="Q7" s="17">
-        <f t="shared" si="2"/>
+        <f>Q6*$D$31</f>
         <v>12500</v>
       </c>
       <c r="R7" s="17">
-        <f t="shared" si="2"/>
+        <f>R6*$D$31</f>
         <v>12500</v>
       </c>
       <c r="S7" s="17">
-        <f t="shared" si="2"/>
+        <f>S6*$D$31</f>
         <v>12500</v>
       </c>
       <c r="T7" s="17">
-        <f t="shared" si="2"/>
+        <f>T6*$D$31</f>
         <v>12500</v>
       </c>
       <c r="U7" s="17">
-        <f t="shared" si="2"/>
+        <f>U6*$D$31</f>
         <v>12500</v>
       </c>
       <c r="V7" s="17">
-        <f t="shared" si="2"/>
+        <f>V6*$D$31</f>
         <v>12500</v>
       </c>
       <c r="W7" s="17">
-        <f t="shared" si="2"/>
+        <f>W6*$D$31</f>
         <v>12500</v>
       </c>
       <c r="X7" s="17">
-        <f t="shared" si="2"/>
+        <f>X6*$D$31</f>
         <v>12500</v>
       </c>
       <c r="Y7" s="24">
-        <f t="shared" si="2"/>
+        <f>Y6*$D$31</f>
         <v>12500</v>
       </c>
     </row>
@@ -2132,99 +2164,99 @@
         <v>8</v>
       </c>
       <c r="B8" s="17">
-        <f t="shared" ref="B8:Y8" si="3">B7+$D$19</f>
+        <f>B7+$D$32</f>
         <v>5166.666666666667</v>
       </c>
       <c r="C8" s="17">
-        <f t="shared" si="3"/>
+        <f>C7+$D$32</f>
         <v>5166.666666666667</v>
       </c>
       <c r="D8" s="17">
-        <f t="shared" si="3"/>
+        <f>D7+$D$32</f>
         <v>5166.666666666667</v>
       </c>
       <c r="E8" s="17">
-        <f t="shared" si="3"/>
+        <f>E7+$D$32</f>
         <v>5166.666666666667</v>
       </c>
       <c r="F8" s="17">
-        <f t="shared" si="3"/>
+        <f>F7+$D$32</f>
         <v>9333.3333333333339</v>
       </c>
       <c r="G8" s="17">
-        <f t="shared" si="3"/>
+        <f>G7+$D$32</f>
         <v>9333.3333333333339</v>
       </c>
       <c r="H8" s="17">
-        <f t="shared" si="3"/>
+        <f>H7+$D$32</f>
         <v>9333.3333333333339</v>
       </c>
       <c r="I8" s="17">
-        <f t="shared" si="3"/>
+        <f>I7+$D$32</f>
         <v>9333.3333333333339</v>
       </c>
       <c r="J8" s="17">
-        <f t="shared" si="3"/>
+        <f>J7+$D$32</f>
         <v>9333.3333333333339</v>
       </c>
       <c r="K8" s="17">
-        <f t="shared" si="3"/>
+        <f>K7+$D$32</f>
         <v>9333.3333333333339</v>
       </c>
       <c r="L8" s="17">
-        <f t="shared" si="3"/>
+        <f>L7+$D$32</f>
         <v>13500</v>
       </c>
       <c r="M8" s="24">
-        <f t="shared" si="3"/>
+        <f>M7+$D$32</f>
         <v>13500</v>
       </c>
       <c r="N8" s="17">
-        <f t="shared" si="3"/>
+        <f>N7+$D$32</f>
         <v>13500</v>
       </c>
       <c r="O8" s="17">
-        <f t="shared" si="3"/>
+        <f>O7+$D$32</f>
         <v>13500</v>
       </c>
       <c r="P8" s="17">
-        <f t="shared" si="3"/>
+        <f>P7+$D$32</f>
         <v>13500</v>
       </c>
       <c r="Q8" s="17">
-        <f t="shared" si="3"/>
+        <f>Q7+$D$32</f>
         <v>13500</v>
       </c>
       <c r="R8" s="17">
-        <f t="shared" si="3"/>
+        <f>R7+$D$32</f>
         <v>13500</v>
       </c>
       <c r="S8" s="17">
-        <f t="shared" si="3"/>
+        <f>S7+$D$32</f>
         <v>13500</v>
       </c>
       <c r="T8" s="17">
-        <f t="shared" si="3"/>
+        <f>T7+$D$32</f>
         <v>13500</v>
       </c>
       <c r="U8" s="17">
-        <f t="shared" si="3"/>
+        <f>U7+$D$32</f>
         <v>13500</v>
       </c>
       <c r="V8" s="17">
-        <f t="shared" si="3"/>
+        <f>V7+$D$32</f>
         <v>13500</v>
       </c>
       <c r="W8" s="17">
-        <f t="shared" si="3"/>
+        <f>W7+$D$32</f>
         <v>13500</v>
       </c>
       <c r="X8" s="17">
-        <f t="shared" si="3"/>
+        <f>X7+$D$32</f>
         <v>13500</v>
       </c>
       <c r="Y8" s="24">
-        <f t="shared" si="3"/>
+        <f>Y7+$D$32</f>
         <v>13500</v>
       </c>
     </row>
@@ -2234,200 +2266,200 @@
       </c>
       <c r="B9" s="17">
         <f>B5-B8</f>
-        <v>-4671.666666666667</v>
+        <v>2333.333333333333</v>
       </c>
       <c r="C9" s="17">
-        <f t="shared" ref="C9:H9" si="4">C5-C8</f>
-        <v>-4424.166666666667</v>
+        <f t="shared" ref="C9:H9" si="1">C5-C8</f>
+        <v>-1416.666666666667</v>
       </c>
       <c r="D9" s="17">
-        <f t="shared" si="4"/>
-        <v>-4052.916666666667</v>
+        <f t="shared" si="1"/>
+        <v>458.33333333333303</v>
       </c>
       <c r="E9" s="17">
-        <f t="shared" si="4"/>
-        <v>-3607.416666666667</v>
+        <f t="shared" si="1"/>
+        <v>1583.333333333333</v>
       </c>
       <c r="F9" s="17">
-        <f t="shared" si="4"/>
-        <v>-7150.3833333333332</v>
+        <f t="shared" si="1"/>
+        <v>116.66666666666606</v>
       </c>
       <c r="G9" s="17">
-        <f t="shared" si="4"/>
-        <v>-6495.498333333333</v>
+        <f t="shared" si="1"/>
+        <v>589.16666666667152</v>
       </c>
       <c r="H9" s="17">
-        <f t="shared" si="4"/>
-        <v>-5644.1478333333334</v>
+        <f t="shared" si="1"/>
+        <v>3565.9166666666661</v>
       </c>
       <c r="I9" s="17">
-        <f t="shared" ref="I9" si="5">I5-I8</f>
-        <v>-4537.3921833333325</v>
+        <f t="shared" ref="I9" si="2">I5-I8</f>
+        <v>7435.6916666666748</v>
       </c>
       <c r="J9" s="17">
-        <f t="shared" ref="J9" si="6">J5-J8</f>
-        <v>-3098.6098383333328</v>
+        <f t="shared" ref="J9" si="3">J5-J8</f>
+        <v>12466.399166666664</v>
       </c>
       <c r="K9" s="17">
-        <f t="shared" ref="K9" si="7">K5-K8</f>
-        <v>-1851.6651393333323</v>
+        <f t="shared" ref="K9" si="4">K5-K8</f>
+        <v>9559.7681666666704</v>
       </c>
       <c r="L9" s="17">
-        <f t="shared" ref="L9" si="8">L5-L8</f>
-        <v>-4521.9981671999976</v>
+        <f t="shared" ref="L9" si="5">L5-L8</f>
+        <v>9171.7217999999993</v>
       </c>
       <c r="M9" s="24">
-        <f t="shared" ref="M9:N9" si="9">M5-M8</f>
-        <v>-3624.1979839199976</v>
+        <f t="shared" ref="M9:N9" si="6">M5-M8</f>
+        <v>103.03308000001743</v>
       </c>
       <c r="N9" s="17">
-        <f t="shared" si="9"/>
-        <v>-2636.6177823119961</v>
+        <f t="shared" si="6"/>
+        <v>1463.336388000027</v>
       </c>
       <c r="O9" s="17">
-        <f t="shared" ref="O9" si="10">O5-O8</f>
-        <v>-2093.4486714275936</v>
+        <f t="shared" ref="O9" si="7">O5-O8</f>
+        <v>-5270.1649865999789</v>
       </c>
       <c r="P9" s="17">
-        <f t="shared" ref="P9" si="11">P5-P8</f>
-        <v>-1523.1211049989743</v>
+        <f t="shared" ref="P9" si="8">P5-P8</f>
+        <v>-4858.6732359299967</v>
       </c>
       <c r="Q9" s="17">
-        <f t="shared" ref="Q9" si="12">Q5-Q8</f>
-        <v>-924.27716024892288</v>
+        <f t="shared" ref="Q9" si="9">Q5-Q8</f>
+        <v>-4426.6068977264913</v>
       </c>
       <c r="R9" s="17">
-        <f t="shared" ref="R9" si="13">R5-R8</f>
-        <v>-295.49101826136757</v>
+        <f t="shared" ref="R9" si="10">R5-R8</f>
+        <v>-3972.9372426128066</v>
       </c>
       <c r="S9" s="17">
-        <f t="shared" ref="S9" si="14">S5-S8</f>
-        <v>364.73443082556514</v>
+        <f t="shared" ref="S9" si="11">S5-S8</f>
+        <v>-3496.5841047434533</v>
       </c>
       <c r="T9" s="17">
-        <f t="shared" ref="T9" si="15">T5-T8</f>
-        <v>1057.9711523668448</v>
+        <f t="shared" ref="T9" si="12">T5-T8</f>
+        <v>-2996.4133099806077</v>
       </c>
       <c r="U9" s="17">
-        <f t="shared" ref="U9" si="16">U5-U8</f>
-        <v>1785.869709985187</v>
+        <f t="shared" ref="U9" si="13">U5-U8</f>
+        <v>-2471.2339754796521</v>
       </c>
       <c r="V9" s="17">
-        <f t="shared" ref="V9" si="17">V5-V8</f>
-        <v>2550.163195484447</v>
+        <f t="shared" ref="V9" si="14">V5-V8</f>
+        <v>-1919.7956742536462</v>
       </c>
       <c r="W9" s="17">
-        <f t="shared" ref="W9" si="18">W5-W8</f>
-        <v>3352.6713552586698</v>
+        <f t="shared" ref="W9" si="15">W5-W8</f>
+        <v>-1340.7854579663071</v>
       </c>
       <c r="X9" s="17">
-        <f t="shared" ref="X9" si="19">X5-X8</f>
-        <v>4195.3049230216056</v>
+        <f t="shared" ref="X9" si="16">X5-X8</f>
+        <v>-732.82473086462778</v>
       </c>
       <c r="Y9" s="24">
-        <f t="shared" ref="Y9" si="20">Y5-Y8</f>
-        <v>5080.0701691726863</v>
+        <f t="shared" ref="Y9" si="17">Y5-Y8</f>
+        <v>-94.465967407848439</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="17">
-        <f>D20+B9</f>
-        <v>45328.333333333336</v>
+        <f>D33+B9</f>
+        <v>52333.333333333336</v>
       </c>
       <c r="C10" s="17">
         <f>B10+C9</f>
-        <v>40904.166666666672</v>
+        <v>50916.666666666672</v>
       </c>
       <c r="D10" s="17">
-        <f t="shared" ref="D10:H10" si="21">C10+D9</f>
-        <v>36851.250000000007</v>
+        <f t="shared" ref="D10:H10" si="18">C10+D9</f>
+        <v>51375.000000000007</v>
       </c>
       <c r="E10" s="17">
-        <f t="shared" si="21"/>
-        <v>33243.833333333343</v>
+        <f t="shared" si="18"/>
+        <v>52958.333333333343</v>
       </c>
       <c r="F10" s="17">
-        <f t="shared" si="21"/>
-        <v>26093.450000000012</v>
+        <f t="shared" si="18"/>
+        <v>53075.000000000007</v>
       </c>
       <c r="G10" s="17">
-        <f t="shared" si="21"/>
-        <v>19597.951666666679</v>
+        <f t="shared" si="18"/>
+        <v>53664.166666666679</v>
       </c>
       <c r="H10" s="17">
-        <f t="shared" si="21"/>
-        <v>13953.803833333346</v>
+        <f t="shared" si="18"/>
+        <v>57230.083333333343</v>
       </c>
       <c r="I10" s="17">
-        <f t="shared" ref="I10" si="22">H10+I9</f>
-        <v>9416.4116500000127</v>
+        <f t="shared" ref="I10" si="19">H10+I9</f>
+        <v>64665.775000000016</v>
       </c>
       <c r="J10" s="17">
-        <f t="shared" ref="J10" si="23">I10+J9</f>
-        <v>6317.8018116666799</v>
+        <f t="shared" ref="J10" si="20">I10+J9</f>
+        <v>77132.174166666679</v>
       </c>
       <c r="K10" s="17">
-        <f t="shared" ref="K10" si="24">J10+K9</f>
-        <v>4466.1366723333476</v>
+        <f t="shared" ref="K10" si="21">J10+K9</f>
+        <v>86691.942333333354</v>
       </c>
       <c r="L10" s="17">
-        <f t="shared" ref="L10" si="25">K10+L9</f>
-        <v>-55.861494866649991</v>
+        <f t="shared" ref="L10" si="22">K10+L9</f>
+        <v>95863.664133333354</v>
       </c>
       <c r="M10" s="24">
-        <f t="shared" ref="M10:N10" si="26">L10+M9</f>
-        <v>-3680.0594787866476</v>
+        <f t="shared" ref="M10:N10" si="23">L10+M9</f>
+        <v>95966.697213333377</v>
       </c>
       <c r="N10" s="17">
-        <f t="shared" si="26"/>
-        <v>-6316.6772610986436</v>
+        <f t="shared" si="23"/>
+        <v>97430.033601333402</v>
       </c>
       <c r="O10" s="17">
         <f>N10+O9</f>
-        <v>-8410.1259325262363</v>
+        <v>92159.868614733423</v>
       </c>
       <c r="P10" s="17">
-        <f t="shared" ref="P10" si="27">O10+P9</f>
-        <v>-9933.2470375252105</v>
+        <f t="shared" ref="P10" si="24">O10+P9</f>
+        <v>87301.19537880343</v>
       </c>
       <c r="Q10" s="17">
-        <f t="shared" ref="Q10" si="28">P10+Q9</f>
-        <v>-10857.524197774133</v>
+        <f t="shared" ref="Q10" si="25">P10+Q9</f>
+        <v>82874.588481076935</v>
       </c>
       <c r="R10" s="17">
-        <f t="shared" ref="R10" si="29">Q10+R9</f>
-        <v>-11153.015216035501</v>
+        <f t="shared" ref="R10" si="26">Q10+R9</f>
+        <v>78901.651238464125</v>
       </c>
       <c r="S10" s="17">
-        <f t="shared" ref="S10" si="30">R10+S9</f>
-        <v>-10788.280785209936</v>
+        <f t="shared" ref="S10" si="27">R10+S9</f>
+        <v>75405.067133720673</v>
       </c>
       <c r="T10" s="17">
-        <f t="shared" ref="T10" si="31">S10+T9</f>
-        <v>-9730.3096328430911</v>
+        <f t="shared" ref="T10" si="28">S10+T9</f>
+        <v>72408.653823740067</v>
       </c>
       <c r="U10" s="17">
-        <f t="shared" ref="U10" si="32">T10+U9</f>
-        <v>-7944.4399228579041</v>
+        <f t="shared" ref="U10" si="29">T10+U9</f>
+        <v>69937.419848260412</v>
       </c>
       <c r="V10" s="17">
-        <f t="shared" ref="V10" si="33">U10+V9</f>
-        <v>-5394.2767273734571</v>
+        <f t="shared" ref="V10" si="30">U10+V9</f>
+        <v>68017.624174006763</v>
       </c>
       <c r="W10" s="17">
-        <f t="shared" ref="W10" si="34">V10+W9</f>
-        <v>-2041.6053721147873</v>
+        <f t="shared" ref="W10" si="31">V10+W9</f>
+        <v>66676.838716040453</v>
       </c>
       <c r="X10" s="17">
-        <f t="shared" ref="X10" si="35">W10+X9</f>
-        <v>2153.6995509068183</v>
+        <f t="shared" ref="X10" si="32">W10+X9</f>
+        <v>65944.013985175829</v>
       </c>
       <c r="Y10" s="24">
-        <f t="shared" ref="Y10" si="36">X10+Y9</f>
-        <v>7233.7697200795046</v>
+        <f t="shared" ref="Y10" si="33">X10+Y9</f>
+        <v>65849.548017767986</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2436,71 +2468,69 @@
     <row r="14" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="16"/>
     </row>
-    <row r="15" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="18">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="17">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="17">
-        <f>D17/12</f>
-        <v>4166.666666666667</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="17">
-        <v>50000</v>
-      </c>
-    </row>
+    <row r="15" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="A22" s="19"/>
     </row>
     <row r="23" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="17">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="17">
+        <f>D30/12</f>
+        <v>4166.666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="17">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2509,10 +2539,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -2524,7 +2554,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2537,7 +2567,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -2614,7 +2644,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="6">
         <v>0.25</v>
@@ -2714,7 +2744,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <f>1/B4</f>
@@ -2822,7 +2852,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -2922,7 +2952,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3022,7 +3052,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>140</v>
@@ -3223,7 +3253,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="7">
         <f>B10*$B$31</f>
@@ -3324,7 +3354,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="10">
         <f>$B$32</f>
@@ -3425,7 +3455,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="8">
         <f>$B$33</f>
@@ -3627,7 +3657,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="7">
         <f>B12-B16</f>
@@ -3728,7 +3758,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="5">
         <f>$B$34</f>
@@ -3855,7 +3885,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="5">
         <f>B16/B10</f>
@@ -3956,7 +3986,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="5">
         <f>B14/B9</f>
@@ -4055,9 +4085,9 @@
         <v>4.8661509797263509</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" s="5">
         <f>$B$31*B5</f>
@@ -4219,7 +4249,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="6">
         <v>0.08</v>
@@ -4227,7 +4257,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="5">
         <v>30</v>
@@ -4235,7 +4265,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" s="5">
         <v>4000</v>
@@ -4243,7 +4273,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>29000</v>
@@ -4259,7 +4289,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B35" s="27">
         <v>-0.05</v>
@@ -4267,12 +4297,12 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A43" r:id="rId1" location="gid=0"/>
+    <hyperlink ref="A43" r:id="rId1" location="gid=0" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/content/docs/simple_financial_model.xlsx
+++ b/content/docs/simple_financial_model.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11111"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pitosalas/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882042BD-6242-4540-BCB1-4A36922E0A35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5580C7-4730-EA49-9C44-BF79C71BAC48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12560" yWindow="3860" windowWidth="38760" windowHeight="20300" tabRatio="293" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12560" yWindow="3860" windowWidth="48060" windowHeight="31540" tabRatio="293" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Model" sheetId="1" r:id="rId1"/>
     <sheet name="Complicated Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
   <si>
     <t>Customers</t>
   </si>
@@ -142,12 +142,6 @@
     <t>Cust Acquisiton Cost</t>
   </si>
   <si>
-    <t>Montly cust aquisition costs (mktng)</t>
-  </si>
-  <si>
-    <t>Monthly Fixed Costs (Rent/Sal/etc.)</t>
-  </si>
-  <si>
     <t>Lifetime Customer Revenue</t>
   </si>
   <si>
@@ -191,18 +185,36 @@
   </si>
   <si>
     <t>Revenue this month</t>
+  </si>
+  <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Customers Per Employee</t>
+  </si>
+  <si>
+    <t>Salaries</t>
+  </si>
+  <si>
+    <t>Average Momthly Salary</t>
+  </si>
+  <si>
+    <t>Monthly Fixed Costs (Rent/Etc)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="8">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -320,7 +332,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="108">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -429,8 +441,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -461,8 +474,12 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="107" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="108" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="108">
+  <cellStyles count="109">
+    <cellStyle name="Comma" xfId="108" builtinId="3"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -817,7 +834,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complicated Model'!$A$19</c:f>
+              <c:f>'Complicated Model'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -831,81 +848,81 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Complicated Model'!$B$19:$Y$19</c:f>
+              <c:f>'Complicated Model'!$B$20:$Y$20</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>150000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121200</c:v>
+                  <c:v>78500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95938.5</c:v>
+                  <c:v>60287.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73829.880937499998</c:v>
+                  <c:v>44635.001250000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54677.552842177734</c:v>
+                  <c:v>31020.051758877496</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38419.524550278118</c:v>
+                  <c:v>19066.770549566696</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25094.019539965408</c:v>
+                  <c:v>8504.8058528567053</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14817.746256252169</c:v>
+                  <c:v>-859.65857130982477</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7772.3284333566662</c:v>
+                  <c:v>-9164.5153168093384</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4196.1174681795492</c:v>
+                  <c:v>-16506.476041442376</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4379.6445190764171</c:v>
+                  <c:v>-22951.678268267093</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8663.6057036220118</c:v>
+                  <c:v>-28543.359576619365</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17438.670535246612</c:v>
+                  <c:v>-33307.43977364117</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31146.655433878677</c:v>
+                  <c:v>-37256.601834944144</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50282.766413988778</c:v>
+                  <c:v>-40393.289301703335</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75398.721407633508</c:v>
+                  <c:v>-42711.917149807887</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>107106.63361068236</c:v>
+                  <c:v>-44200.508531349769</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>146083.58545739989</c:v>
+                  <c:v>-44841.910116546831</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>193076.85632573004</c:v>
+                  <c:v>-44614.696447113965</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>248909.79094833502</c:v>
+                  <c:v>-43493.843538698711</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>314488.31304333702</c:v>
+                  <c:v>-41451.230340672759</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>390808.10203678173</c:v>
+                  <c:v>-38456.011076127332</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>478962.4613534566</c:v>
+                  <c:v>-34474.890197318804</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>580150.91556330642</c:v>
+                  <c:v>-29472.323476178324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -983,15 +1000,67 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="18"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Customers</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1002,97 +1071,95 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Complicated Model'!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Change in Cash</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Complicated Model'!$B$18:$Y$18</c:f>
+              <c:f>'Complicated Model'!$B$10:$Y$10</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-28800</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-25261.5</c:v>
+                  <c:v>1775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-22108.619062499998</c:v>
+                  <c:v>2389.2224999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-19152.328095322264</c:v>
+                  <c:v>2888.2512241949998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-16258.028291899616</c:v>
+                  <c:v>3304.6756423753777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-13325.505010312711</c:v>
+                  <c:v>3661.9651856200021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-10276.273283713239</c:v>
+                  <c:v>3977.1466152163266</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7045.4178228955025</c:v>
+                  <c:v>4262.6666513318414</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3576.210965177117</c:v>
+                  <c:v>4527.6962411976938</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>183.52705089686788</c:v>
+                  <c:v>4779.0496576440883</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4283.9611845455947</c:v>
+                  <c:v>5021.8361981322896</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8775.0648316246006</c:v>
+                  <c:v>5259.9250859832709</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13707.984898632065</c:v>
+                  <c:v>5496.2790854049972</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19136.110980110105</c:v>
+                  <c:v>5733.1952972841718</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25115.954993644737</c:v>
+                  <c:v>5972.4799516720395</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31707.912203048851</c:v>
+                  <c:v>6215.5760003776495</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38976.951846717522</c:v>
+                  <c:v>6463.6567701575714</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>46993.270868330132</c:v>
+                  <c:v>6717.6950803015825</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>55832.934622604997</c:v>
+                  <c:v>6978.5145298173302</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>65578.522095002001</c:v>
+                  <c:v>7246.8277607342097</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>76319.788993444701</c:v>
+                  <c:v>7523.2651609619952</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>88154.359316674905</c:v>
+                  <c:v>7808.3965150639451</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>101188.45420984982</c:v>
+                  <c:v>8102.7474286442848</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>115537.66577863859</c:v>
+                  <c:v>8406.811861647253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1100,7 +1167,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6F13-0D4D-8F3E-14AD3C7E6D9A}"/>
+              <c16:uniqueId val="{00000000-4F3F-2949-BF63-46F14364E225}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1113,20 +1180,53 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-110451904"/>
-        <c:axId val="-110449152"/>
+        <c:axId val="1009566415"/>
+        <c:axId val="1009568095"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-110451904"/>
+        <c:axId val="1009566415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-110449152"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1009568095"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1134,33 +1234,667 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-110449152"/>
+        <c:axId val="1009568095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-110451904"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1009566415"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1208,16 +1942,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1244,23 +1978,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3096D60D-A2BF-DE42-93E6-E9123856F6AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,7 +2339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
@@ -1618,7 +2352,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1652,19 +2386,19 @@
         <v>3</v>
       </c>
       <c r="I2" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="L2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="M2" s="26" t="s">
         <v>48</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>50</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>17</v>
@@ -1688,19 +2422,19 @@
         <v>3</v>
       </c>
       <c r="U2" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="X2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="Y2" s="26" t="s">
         <v>48</v>
-      </c>
-      <c r="X2" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y2" s="26" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -1805,7 +2539,7 @@
     </row>
     <row r="4" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="16">
         <v>0.5</v>
@@ -1882,102 +2616,102 @@
     </row>
     <row r="5" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="17">
         <f>B3*D29</f>
         <v>7500</v>
       </c>
       <c r="C5" s="17">
-        <f>(C3-B3)*$D$29</f>
+        <f t="shared" ref="C5:Y5" si="1">(C3-B3)*$D$29</f>
         <v>3750</v>
       </c>
       <c r="D5" s="17">
-        <f>(D3-C3)*$D$29</f>
+        <f t="shared" si="1"/>
         <v>5625</v>
       </c>
       <c r="E5" s="17">
-        <f>(E3-D3)*$D$29</f>
+        <f t="shared" si="1"/>
         <v>6750</v>
       </c>
       <c r="F5" s="17">
-        <f>(F3-E3)*$D$29</f>
+        <f t="shared" si="1"/>
         <v>9450</v>
       </c>
       <c r="G5" s="17">
-        <f>(G3-F3)*$D$29</f>
+        <f t="shared" si="1"/>
         <v>9922.5000000000055</v>
       </c>
       <c r="H5" s="17">
-        <f>(H3-G3)*$D$29</f>
+        <f t="shared" si="1"/>
         <v>12899.25</v>
       </c>
       <c r="I5" s="17">
-        <f>(I3-H3)*$D$29</f>
+        <f t="shared" si="1"/>
         <v>16769.025000000009</v>
       </c>
       <c r="J5" s="17">
-        <f>(J3-I3)*$D$29</f>
+        <f t="shared" si="1"/>
         <v>21799.732499999998</v>
       </c>
       <c r="K5" s="17">
-        <f>(K3-J3)*$D$29</f>
+        <f t="shared" si="1"/>
         <v>18893.101500000004</v>
       </c>
       <c r="L5" s="17">
-        <f>(L3-K3)*$D$29</f>
+        <f t="shared" si="1"/>
         <v>22671.721799999999</v>
       </c>
       <c r="M5" s="17">
-        <f>(M3-L3)*$D$29</f>
+        <f t="shared" si="1"/>
         <v>13603.033080000017</v>
       </c>
       <c r="N5" s="17">
-        <f>(N3-M3)*$D$29</f>
+        <f t="shared" si="1"/>
         <v>14963.336388000027</v>
       </c>
       <c r="O5" s="17">
-        <f>(O3-N3)*$D$29</f>
+        <f t="shared" si="1"/>
         <v>8229.8350134000211</v>
       </c>
       <c r="P5" s="17">
-        <f>(P3-O3)*$D$29</f>
+        <f t="shared" si="1"/>
         <v>8641.3267640700033</v>
       </c>
       <c r="Q5" s="17">
-        <f>(Q3-P3)*$D$29</f>
+        <f t="shared" si="1"/>
         <v>9073.3931022735087</v>
       </c>
       <c r="R5" s="17">
-        <f>(R3-Q3)*$D$29</f>
+        <f t="shared" si="1"/>
         <v>9527.0627573871934</v>
       </c>
       <c r="S5" s="17">
-        <f>(S3-R3)*$D$29</f>
+        <f t="shared" si="1"/>
         <v>10003.415895256547</v>
       </c>
       <c r="T5" s="17">
-        <f>(T3-S3)*$D$29</f>
+        <f t="shared" si="1"/>
         <v>10503.586690019392</v>
       </c>
       <c r="U5" s="17">
-        <f>(U3-T3)*$D$29</f>
+        <f t="shared" si="1"/>
         <v>11028.766024520348</v>
       </c>
       <c r="V5" s="17">
-        <f>(V3-U3)*$D$29</f>
+        <f t="shared" si="1"/>
         <v>11580.204325746354</v>
       </c>
       <c r="W5" s="17">
-        <f>(W3-V3)*$D$29</f>
+        <f t="shared" si="1"/>
         <v>12159.214542033693</v>
       </c>
       <c r="X5" s="17">
-        <f>(X3-W3)*$D$29</f>
+        <f t="shared" si="1"/>
         <v>12767.175269135372</v>
       </c>
       <c r="Y5" s="17">
-        <f>(Y3-X3)*$D$29</f>
+        <f t="shared" si="1"/>
         <v>13405.534032592152</v>
       </c>
     </row>
@@ -2063,99 +2797,99 @@
         <v>6</v>
       </c>
       <c r="B7" s="17">
-        <f>B6*$D$31</f>
+        <f t="shared" ref="B7:Y7" si="2">B6*$D$31</f>
         <v>4166.666666666667</v>
       </c>
       <c r="C7" s="17">
-        <f>C6*$D$31</f>
+        <f t="shared" si="2"/>
         <v>4166.666666666667</v>
       </c>
       <c r="D7" s="17">
-        <f>D6*$D$31</f>
+        <f t="shared" si="2"/>
         <v>4166.666666666667</v>
       </c>
       <c r="E7" s="17">
-        <f>E6*$D$31</f>
+        <f t="shared" si="2"/>
         <v>4166.666666666667</v>
       </c>
       <c r="F7" s="17">
-        <f>F6*$D$31</f>
+        <f t="shared" si="2"/>
         <v>8333.3333333333339</v>
       </c>
       <c r="G7" s="17">
-        <f>G6*$D$31</f>
+        <f t="shared" si="2"/>
         <v>8333.3333333333339</v>
       </c>
       <c r="H7" s="17">
-        <f>H6*$D$31</f>
+        <f t="shared" si="2"/>
         <v>8333.3333333333339</v>
       </c>
       <c r="I7" s="17">
-        <f>I6*$D$31</f>
+        <f t="shared" si="2"/>
         <v>8333.3333333333339</v>
       </c>
       <c r="J7" s="17">
-        <f>J6*$D$31</f>
+        <f t="shared" si="2"/>
         <v>8333.3333333333339</v>
       </c>
       <c r="K7" s="17">
-        <f>K6*$D$31</f>
+        <f t="shared" si="2"/>
         <v>8333.3333333333339</v>
       </c>
       <c r="L7" s="17">
-        <f>L6*$D$31</f>
+        <f t="shared" si="2"/>
         <v>12500</v>
       </c>
       <c r="M7" s="24">
-        <f>M6*$D$31</f>
+        <f t="shared" si="2"/>
         <v>12500</v>
       </c>
       <c r="N7" s="17">
-        <f>N6*$D$31</f>
+        <f t="shared" si="2"/>
         <v>12500</v>
       </c>
       <c r="O7" s="17">
-        <f>O6*$D$31</f>
+        <f t="shared" si="2"/>
         <v>12500</v>
       </c>
       <c r="P7" s="17">
-        <f>P6*$D$31</f>
+        <f t="shared" si="2"/>
         <v>12500</v>
       </c>
       <c r="Q7" s="17">
-        <f>Q6*$D$31</f>
+        <f t="shared" si="2"/>
         <v>12500</v>
       </c>
       <c r="R7" s="17">
-        <f>R6*$D$31</f>
+        <f t="shared" si="2"/>
         <v>12500</v>
       </c>
       <c r="S7" s="17">
-        <f>S6*$D$31</f>
+        <f t="shared" si="2"/>
         <v>12500</v>
       </c>
       <c r="T7" s="17">
-        <f>T6*$D$31</f>
+        <f t="shared" si="2"/>
         <v>12500</v>
       </c>
       <c r="U7" s="17">
-        <f>U6*$D$31</f>
+        <f t="shared" si="2"/>
         <v>12500</v>
       </c>
       <c r="V7" s="17">
-        <f>V6*$D$31</f>
+        <f t="shared" si="2"/>
         <v>12500</v>
       </c>
       <c r="W7" s="17">
-        <f>W6*$D$31</f>
+        <f t="shared" si="2"/>
         <v>12500</v>
       </c>
       <c r="X7" s="17">
-        <f>X6*$D$31</f>
+        <f t="shared" si="2"/>
         <v>12500</v>
       </c>
       <c r="Y7" s="24">
-        <f>Y6*$D$31</f>
+        <f t="shared" si="2"/>
         <v>12500</v>
       </c>
     </row>
@@ -2164,99 +2898,99 @@
         <v>8</v>
       </c>
       <c r="B8" s="17">
-        <f>B7+$D$32</f>
+        <f t="shared" ref="B8:Y8" si="3">B7+$D$32</f>
         <v>5166.666666666667</v>
       </c>
       <c r="C8" s="17">
-        <f>C7+$D$32</f>
+        <f t="shared" si="3"/>
         <v>5166.666666666667</v>
       </c>
       <c r="D8" s="17">
-        <f>D7+$D$32</f>
+        <f t="shared" si="3"/>
         <v>5166.666666666667</v>
       </c>
       <c r="E8" s="17">
-        <f>E7+$D$32</f>
+        <f t="shared" si="3"/>
         <v>5166.666666666667</v>
       </c>
       <c r="F8" s="17">
-        <f>F7+$D$32</f>
+        <f t="shared" si="3"/>
         <v>9333.3333333333339</v>
       </c>
       <c r="G8" s="17">
-        <f>G7+$D$32</f>
+        <f t="shared" si="3"/>
         <v>9333.3333333333339</v>
       </c>
       <c r="H8" s="17">
-        <f>H7+$D$32</f>
+        <f t="shared" si="3"/>
         <v>9333.3333333333339</v>
       </c>
       <c r="I8" s="17">
-        <f>I7+$D$32</f>
+        <f t="shared" si="3"/>
         <v>9333.3333333333339</v>
       </c>
       <c r="J8" s="17">
-        <f>J7+$D$32</f>
+        <f t="shared" si="3"/>
         <v>9333.3333333333339</v>
       </c>
       <c r="K8" s="17">
-        <f>K7+$D$32</f>
+        <f t="shared" si="3"/>
         <v>9333.3333333333339</v>
       </c>
       <c r="L8" s="17">
-        <f>L7+$D$32</f>
+        <f t="shared" si="3"/>
         <v>13500</v>
       </c>
       <c r="M8" s="24">
-        <f>M7+$D$32</f>
+        <f t="shared" si="3"/>
         <v>13500</v>
       </c>
       <c r="N8" s="17">
-        <f>N7+$D$32</f>
+        <f t="shared" si="3"/>
         <v>13500</v>
       </c>
       <c r="O8" s="17">
-        <f>O7+$D$32</f>
+        <f t="shared" si="3"/>
         <v>13500</v>
       </c>
       <c r="P8" s="17">
-        <f>P7+$D$32</f>
+        <f t="shared" si="3"/>
         <v>13500</v>
       </c>
       <c r="Q8" s="17">
-        <f>Q7+$D$32</f>
+        <f t="shared" si="3"/>
         <v>13500</v>
       </c>
       <c r="R8" s="17">
-        <f>R7+$D$32</f>
+        <f t="shared" si="3"/>
         <v>13500</v>
       </c>
       <c r="S8" s="17">
-        <f>S7+$D$32</f>
+        <f t="shared" si="3"/>
         <v>13500</v>
       </c>
       <c r="T8" s="17">
-        <f>T7+$D$32</f>
+        <f t="shared" si="3"/>
         <v>13500</v>
       </c>
       <c r="U8" s="17">
-        <f>U7+$D$32</f>
+        <f t="shared" si="3"/>
         <v>13500</v>
       </c>
       <c r="V8" s="17">
-        <f>V7+$D$32</f>
+        <f t="shared" si="3"/>
         <v>13500</v>
       </c>
       <c r="W8" s="17">
-        <f>W7+$D$32</f>
+        <f t="shared" si="3"/>
         <v>13500</v>
       </c>
       <c r="X8" s="17">
-        <f>X7+$D$32</f>
+        <f t="shared" si="3"/>
         <v>13500</v>
       </c>
       <c r="Y8" s="24">
-        <f>Y7+$D$32</f>
+        <f t="shared" si="3"/>
         <v>13500</v>
       </c>
     </row>
@@ -2269,101 +3003,101 @@
         <v>2333.333333333333</v>
       </c>
       <c r="C9" s="17">
-        <f t="shared" ref="C9:H9" si="1">C5-C8</f>
+        <f t="shared" ref="C9:H9" si="4">C5-C8</f>
         <v>-1416.666666666667</v>
       </c>
       <c r="D9" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>458.33333333333303</v>
       </c>
       <c r="E9" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1583.333333333333</v>
       </c>
       <c r="F9" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>116.66666666666606</v>
       </c>
       <c r="G9" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>589.16666666667152</v>
       </c>
       <c r="H9" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3565.9166666666661</v>
       </c>
       <c r="I9" s="17">
-        <f t="shared" ref="I9" si="2">I5-I8</f>
+        <f t="shared" ref="I9" si="5">I5-I8</f>
         <v>7435.6916666666748</v>
       </c>
       <c r="J9" s="17">
-        <f t="shared" ref="J9" si="3">J5-J8</f>
+        <f t="shared" ref="J9" si="6">J5-J8</f>
         <v>12466.399166666664</v>
       </c>
       <c r="K9" s="17">
-        <f t="shared" ref="K9" si="4">K5-K8</f>
+        <f t="shared" ref="K9" si="7">K5-K8</f>
         <v>9559.7681666666704</v>
       </c>
       <c r="L9" s="17">
-        <f t="shared" ref="L9" si="5">L5-L8</f>
+        <f t="shared" ref="L9" si="8">L5-L8</f>
         <v>9171.7217999999993</v>
       </c>
       <c r="M9" s="24">
-        <f t="shared" ref="M9:N9" si="6">M5-M8</f>
+        <f t="shared" ref="M9:N9" si="9">M5-M8</f>
         <v>103.03308000001743</v>
       </c>
       <c r="N9" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1463.336388000027</v>
       </c>
       <c r="O9" s="17">
-        <f t="shared" ref="O9" si="7">O5-O8</f>
+        <f t="shared" ref="O9" si="10">O5-O8</f>
         <v>-5270.1649865999789</v>
       </c>
       <c r="P9" s="17">
-        <f t="shared" ref="P9" si="8">P5-P8</f>
+        <f t="shared" ref="P9" si="11">P5-P8</f>
         <v>-4858.6732359299967</v>
       </c>
       <c r="Q9" s="17">
-        <f t="shared" ref="Q9" si="9">Q5-Q8</f>
+        <f t="shared" ref="Q9" si="12">Q5-Q8</f>
         <v>-4426.6068977264913</v>
       </c>
       <c r="R9" s="17">
-        <f t="shared" ref="R9" si="10">R5-R8</f>
+        <f t="shared" ref="R9" si="13">R5-R8</f>
         <v>-3972.9372426128066</v>
       </c>
       <c r="S9" s="17">
-        <f t="shared" ref="S9" si="11">S5-S8</f>
+        <f t="shared" ref="S9" si="14">S5-S8</f>
         <v>-3496.5841047434533</v>
       </c>
       <c r="T9" s="17">
-        <f t="shared" ref="T9" si="12">T5-T8</f>
+        <f t="shared" ref="T9" si="15">T5-T8</f>
         <v>-2996.4133099806077</v>
       </c>
       <c r="U9" s="17">
-        <f t="shared" ref="U9" si="13">U5-U8</f>
+        <f t="shared" ref="U9" si="16">U5-U8</f>
         <v>-2471.2339754796521</v>
       </c>
       <c r="V9" s="17">
-        <f t="shared" ref="V9" si="14">V5-V8</f>
+        <f t="shared" ref="V9" si="17">V5-V8</f>
         <v>-1919.7956742536462</v>
       </c>
       <c r="W9" s="17">
-        <f t="shared" ref="W9" si="15">W5-W8</f>
+        <f t="shared" ref="W9" si="18">W5-W8</f>
         <v>-1340.7854579663071</v>
       </c>
       <c r="X9" s="17">
-        <f t="shared" ref="X9" si="16">X5-X8</f>
+        <f t="shared" ref="X9" si="19">X5-X8</f>
         <v>-732.82473086462778</v>
       </c>
       <c r="Y9" s="24">
-        <f t="shared" ref="Y9" si="17">Y5-Y8</f>
+        <f t="shared" ref="Y9" si="20">Y5-Y8</f>
         <v>-94.465967407848439</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="17">
         <f>D33+B9</f>
@@ -2374,47 +3108,47 @@
         <v>50916.666666666672</v>
       </c>
       <c r="D10" s="17">
-        <f t="shared" ref="D10:H10" si="18">C10+D9</f>
+        <f t="shared" ref="D10:H10" si="21">C10+D9</f>
         <v>51375.000000000007</v>
       </c>
       <c r="E10" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>52958.333333333343</v>
       </c>
       <c r="F10" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>53075.000000000007</v>
       </c>
       <c r="G10" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>53664.166666666679</v>
       </c>
       <c r="H10" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>57230.083333333343</v>
       </c>
       <c r="I10" s="17">
-        <f t="shared" ref="I10" si="19">H10+I9</f>
+        <f t="shared" ref="I10" si="22">H10+I9</f>
         <v>64665.775000000016</v>
       </c>
       <c r="J10" s="17">
-        <f t="shared" ref="J10" si="20">I10+J9</f>
+        <f t="shared" ref="J10" si="23">I10+J9</f>
         <v>77132.174166666679</v>
       </c>
       <c r="K10" s="17">
-        <f t="shared" ref="K10" si="21">J10+K9</f>
+        <f t="shared" ref="K10" si="24">J10+K9</f>
         <v>86691.942333333354</v>
       </c>
       <c r="L10" s="17">
-        <f t="shared" ref="L10" si="22">K10+L9</f>
+        <f t="shared" ref="L10" si="25">K10+L9</f>
         <v>95863.664133333354</v>
       </c>
       <c r="M10" s="24">
-        <f t="shared" ref="M10:N10" si="23">L10+M9</f>
+        <f t="shared" ref="M10:N10" si="26">L10+M9</f>
         <v>95966.697213333377</v>
       </c>
       <c r="N10" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>97430.033601333402</v>
       </c>
       <c r="O10" s="17">
@@ -2422,43 +3156,43 @@
         <v>92159.868614733423</v>
       </c>
       <c r="P10" s="17">
-        <f t="shared" ref="P10" si="24">O10+P9</f>
+        <f t="shared" ref="P10" si="27">O10+P9</f>
         <v>87301.19537880343</v>
       </c>
       <c r="Q10" s="17">
-        <f t="shared" ref="Q10" si="25">P10+Q9</f>
+        <f t="shared" ref="Q10" si="28">P10+Q9</f>
         <v>82874.588481076935</v>
       </c>
       <c r="R10" s="17">
-        <f t="shared" ref="R10" si="26">Q10+R9</f>
+        <f t="shared" ref="R10" si="29">Q10+R9</f>
         <v>78901.651238464125</v>
       </c>
       <c r="S10" s="17">
-        <f t="shared" ref="S10" si="27">R10+S9</f>
+        <f t="shared" ref="S10" si="30">R10+S9</f>
         <v>75405.067133720673</v>
       </c>
       <c r="T10" s="17">
-        <f t="shared" ref="T10" si="28">S10+T9</f>
+        <f t="shared" ref="T10" si="31">S10+T9</f>
         <v>72408.653823740067</v>
       </c>
       <c r="U10" s="17">
-        <f t="shared" ref="U10" si="29">T10+U9</f>
+        <f t="shared" ref="U10" si="32">T10+U9</f>
         <v>69937.419848260412</v>
       </c>
       <c r="V10" s="17">
-        <f t="shared" ref="V10" si="30">U10+V9</f>
+        <f t="shared" ref="V10" si="33">U10+V9</f>
         <v>68017.624174006763</v>
       </c>
       <c r="W10" s="17">
-        <f t="shared" ref="W10" si="31">V10+W9</f>
+        <f t="shared" ref="W10" si="34">V10+W9</f>
         <v>66676.838716040453</v>
       </c>
       <c r="X10" s="17">
-        <f t="shared" ref="X10" si="32">W10+X9</f>
+        <f t="shared" ref="X10" si="35">W10+X9</f>
         <v>65944.013985175829</v>
       </c>
       <c r="Y10" s="24">
-        <f t="shared" ref="Y10" si="33">X10+Y9</f>
+        <f t="shared" ref="Y10" si="36">X10+Y9</f>
         <v>65849.548017767986</v>
       </c>
     </row>
@@ -2490,7 +3224,7 @@
     </row>
     <row r="29" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D29" s="18">
         <v>75</v>
@@ -2540,21 +3274,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y43"/>
+  <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
-    <col min="2" max="13" width="9.6640625" customWidth="1"/>
+    <col min="2" max="25" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2567,7 +3301,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -2651,95 +3385,95 @@
       </c>
       <c r="C4" s="6">
         <f>B4*(1+$B$35)</f>
-        <v>0.23749999999999999</v>
+        <v>0.245</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" ref="D4:Y4" si="0">C4*(1+$B$35)</f>
-        <v>0.22562499999999999</v>
+        <f>C4*(1+$B$35)</f>
+        <v>0.24009999999999998</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.21434374999999997</v>
+        <f>D4*(1+$B$35)</f>
+        <v>0.23529799999999998</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.20362656249999997</v>
+        <f>E4*(1+$B$35)</f>
+        <v>0.23059203999999997</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.19344523437499997</v>
+        <f>F4*(1+$B$35)</f>
+        <v>0.22598019919999995</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.18377297265624995</v>
+        <f>G4*(1+$B$35)</f>
+        <v>0.22146059521599995</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.17458432402343743</v>
+        <f>H4*(1+$B$35)</f>
+        <v>0.21703138331167995</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.16585510782226556</v>
+        <f>I4*(1+$B$35)</f>
+        <v>0.21269075564544634</v>
       </c>
       <c r="K4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.15756235243115227</v>
+        <f>J4*(1+$B$35)</f>
+        <v>0.20843694053253742</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.14968423480959464</v>
+        <f>K4*(1+$B$35)</f>
+        <v>0.20426820172188667</v>
       </c>
       <c r="M4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.14220002306911489</v>
+        <f>L4*(1+$B$35)</f>
+        <v>0.20018283768744893</v>
       </c>
       <c r="N4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.13509002191565914</v>
+        <f>M4*(1+$B$35)</f>
+        <v>0.19617918093369996</v>
       </c>
       <c r="O4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.12833552081987618</v>
+        <f>N4*(1+$B$35)</f>
+        <v>0.19225559731502595</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.12191874477888236</v>
+        <f>O4*(1+$B$35)</f>
+        <v>0.18841048536872543</v>
       </c>
       <c r="Q4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.11582280753993823</v>
+        <f>P4*(1+$B$35)</f>
+        <v>0.18464227566135091</v>
       </c>
       <c r="R4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.11003166716294131</v>
+        <f>Q4*(1+$B$35)</f>
+        <v>0.1809494301481239</v>
       </c>
       <c r="S4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.10453008380479424</v>
+        <f>R4*(1+$B$35)</f>
+        <v>0.17733044154516142</v>
       </c>
       <c r="T4" s="6">
-        <f t="shared" si="0"/>
-        <v>9.9303579614554521E-2</v>
+        <f>S4*(1+$B$35)</f>
+        <v>0.17378383271425818</v>
       </c>
       <c r="U4" s="6">
-        <f t="shared" si="0"/>
-        <v>9.4338400633826786E-2</v>
+        <f>T4*(1+$B$35)</f>
+        <v>0.17030815605997301</v>
       </c>
       <c r="V4" s="6">
-        <f t="shared" si="0"/>
-        <v>8.9621480602135442E-2</v>
+        <f>U4*(1+$B$35)</f>
+        <v>0.16690199293877356</v>
       </c>
       <c r="W4" s="6">
-        <f t="shared" si="0"/>
-        <v>8.5140406572028662E-2</v>
+        <f>V4*(1+$B$35)</f>
+        <v>0.16356395307999808</v>
       </c>
       <c r="X4" s="6">
-        <f t="shared" si="0"/>
-        <v>8.0883386243427224E-2</v>
+        <f>W4*(1+$B$35)</f>
+        <v>0.16029267401839811</v>
       </c>
       <c r="Y4" s="6">
-        <f t="shared" si="0"/>
-        <v>7.6839216931255866E-2</v>
+        <f>X4*(1+$B$35)</f>
+        <v>0.15708682053803014</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -2751,96 +3485,96 @@
         <v>4</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:D5" si="1">1/C4</f>
-        <v>4.2105263157894735</v>
+        <f t="shared" ref="C5:D5" si="0">1/C4</f>
+        <v>4.0816326530612246</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="1"/>
-        <v>4.43213296398892</v>
+        <f t="shared" si="0"/>
+        <v>4.1649312786339028</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5" si="2">1/E4</f>
-        <v>4.665403119988337</v>
+        <f t="shared" ref="E5" si="1">1/E4</f>
+        <v>4.2499298761570437</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5" si="3">1/F4</f>
-        <v>4.9109506526193023</v>
+        <f t="shared" ref="F5" si="2">1/F4</f>
+        <v>4.3366631389357595</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5" si="4">1/G4</f>
-        <v>5.1694217395992652</v>
+        <f t="shared" ref="G5" si="3">1/G4</f>
+        <v>4.4251664683017955</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" ref="H5" si="5">1/H4</f>
-        <v>5.441496567999228</v>
+        <f t="shared" ref="H5" si="4">1/H4</f>
+        <v>4.5154759880630566</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" ref="I5" si="6">1/I4</f>
-        <v>5.7278911242097141</v>
+        <f t="shared" ref="I5" si="5">1/I4</f>
+        <v>4.6076285592480168</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J5" si="7">1/J4</f>
-        <v>6.0293590781154887</v>
+        <f t="shared" ref="J5" si="6">1/J4</f>
+        <v>4.701661795151038</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" ref="K5" si="8">1/K4</f>
-        <v>6.3466937664373564</v>
+        <f t="shared" ref="K5" si="7">1/K4</f>
+        <v>4.7976140766847326</v>
       </c>
       <c r="L5" s="4">
-        <f t="shared" ref="L5" si="9">1/L4</f>
-        <v>6.6807302804603763</v>
+        <f t="shared" ref="L5" si="8">1/L4</f>
+        <v>4.8955245680456452</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" ref="M5" si="10">1/M4</f>
-        <v>7.0323476636425024</v>
+        <f t="shared" ref="M5" si="9">1/M4</f>
+        <v>4.9954332326996385</v>
       </c>
       <c r="N5" s="4">
-        <f t="shared" ref="N5:O5" si="11">1/N4</f>
-        <v>7.4024712248868445</v>
+        <f t="shared" ref="N5:O5" si="10">1/N4</f>
+        <v>5.0973808496935087</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" si="11"/>
-        <v>7.7920749735651</v>
+        <f t="shared" si="10"/>
+        <v>5.2014090302994989</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" ref="P5" si="12">1/P4</f>
-        <v>8.2021841827001065</v>
+        <f t="shared" ref="P5" si="11">1/P4</f>
+        <v>5.3075602349994888</v>
       </c>
       <c r="Q5" s="4">
-        <f t="shared" ref="Q5" si="13">1/Q4</f>
-        <v>8.633878087052743</v>
+        <f t="shared" ref="Q5" si="12">1/Q4</f>
+        <v>5.4158777908158049</v>
       </c>
       <c r="R5" s="4">
-        <f t="shared" ref="R5" si="14">1/R4</f>
-        <v>9.0882927232134154</v>
+        <f t="shared" ref="R5" si="13">1/R4</f>
+        <v>5.5264059089957192</v>
       </c>
       <c r="S5" s="4">
-        <f t="shared" ref="S5" si="15">1/S4</f>
-        <v>9.5666239191720166</v>
+        <f t="shared" ref="S5" si="14">1/S4</f>
+        <v>5.6391897030568563</v>
       </c>
       <c r="T5" s="4">
-        <f t="shared" ref="T5" si="16">1/T4</f>
-        <v>10.070130441233703</v>
+        <f t="shared" ref="T5" si="15">1/T4</f>
+        <v>5.754275207200874</v>
       </c>
       <c r="U5" s="4">
-        <f t="shared" ref="U5" si="17">1/U4</f>
-        <v>10.600137306561793</v>
+        <f t="shared" ref="U5" si="16">1/U4</f>
+        <v>5.8717093951029327</v>
       </c>
       <c r="V5" s="4">
-        <f t="shared" ref="V5" si="18">1/V4</f>
-        <v>11.158039270065046</v>
+        <f t="shared" ref="V5" si="17">1/V4</f>
+        <v>5.9915401990846249</v>
       </c>
       <c r="W5" s="4">
-        <f t="shared" ref="W5" si="19">1/W4</f>
-        <v>11.745304494805312</v>
+        <f t="shared" ref="W5" si="18">1/W4</f>
+        <v>6.1138165296781892</v>
       </c>
       <c r="X5" s="4">
-        <f t="shared" ref="X5" si="20">1/X4</f>
-        <v>12.36347841558454</v>
+        <f t="shared" ref="X5" si="19">1/X4</f>
+        <v>6.238588295589989</v>
       </c>
       <c r="Y5" s="4">
-        <f t="shared" ref="Y5" si="21">1/Y4</f>
-        <v>13.014187805878462</v>
+        <f t="shared" ref="Y5" si="20">1/Y4</f>
+        <v>6.3659064240714178</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -2858,96 +3592,96 @@
         <v>0</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" ref="C7:H7" si="22">B10</f>
-        <v>140</v>
+        <f>B10</f>
+        <v>1000</v>
       </c>
       <c r="D7" s="4">
+        <f t="shared" ref="C7:H7" si="21">C10</f>
+        <v>1775</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="21"/>
+        <v>2389.2224999999999</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="21"/>
+        <v>2888.2512241949998</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="21"/>
+        <v>3304.6756423753777</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="21"/>
+        <v>3661.9651856200021</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" ref="I7:M7" si="22">H10</f>
+        <v>3977.1466152163266</v>
+      </c>
+      <c r="J7" s="4">
         <f t="shared" si="22"/>
-        <v>257.95000000000005</v>
-      </c>
-      <c r="E7" s="4">
+        <v>4262.6666513318414</v>
+      </c>
+      <c r="K7" s="4">
         <f t="shared" si="22"/>
-        <v>363.04603125000006</v>
-      </c>
-      <c r="F7" s="4">
+        <v>4527.6962411976938</v>
+      </c>
+      <c r="L7" s="4">
         <f t="shared" si="22"/>
-        <v>461.58906348925791</v>
-      </c>
-      <c r="G7" s="4">
+        <v>4779.0496576440883</v>
+      </c>
+      <c r="M7" s="4">
         <f t="shared" si="22"/>
-        <v>558.0657236033461</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="22"/>
-        <v>655.81649965624297</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" ref="I7:M7" si="23">H10</f>
-        <v>757.45755720955867</v>
-      </c>
-      <c r="J7" s="4">
+        <v>5021.8361981322896</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" ref="N7:T7" si="23">M10</f>
+        <v>5259.9250859832709</v>
+      </c>
+      <c r="O7" s="4">
         <f t="shared" si="23"/>
-        <v>865.15273923681661</v>
-      </c>
-      <c r="K7" s="4">
+        <v>5496.2790854049972</v>
+      </c>
+      <c r="P7" s="4">
         <f t="shared" si="23"/>
-        <v>980.79296782742949</v>
-      </c>
-      <c r="L7" s="4">
+        <v>5733.1952972841718</v>
+      </c>
+      <c r="Q7" s="4">
         <f t="shared" si="23"/>
-        <v>1106.1175683632289</v>
-      </c>
-      <c r="M7" s="4">
+        <v>5972.4799516720395</v>
+      </c>
+      <c r="R7" s="4">
         <f t="shared" si="23"/>
-        <v>1242.7987061515198</v>
-      </c>
-      <c r="N7" s="4">
-        <f t="shared" ref="N7:T7" si="24">M10</f>
-        <v>1392.5021610541532</v>
-      </c>
-      <c r="O7" s="4">
+        <v>6215.5760003776495</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" si="23"/>
+        <v>6463.6567701575714</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="23"/>
+        <v>6717.6950803015825</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" ref="U7:Y7" si="24">T10</f>
+        <v>6978.5145298173302</v>
+      </c>
+      <c r="V7" s="4">
         <f t="shared" si="24"/>
-        <v>1556.9328299544022</v>
-      </c>
-      <c r="P7" s="4">
+        <v>7246.8277607342097</v>
+      </c>
+      <c r="W7" s="4">
         <f t="shared" si="24"/>
-        <v>1737.8703660036701</v>
-      </c>
-      <c r="Q7" s="4">
+        <v>7523.2651609619952</v>
+      </c>
+      <c r="X7" s="4">
         <f t="shared" si="24"/>
-        <v>1937.198499788158</v>
-      </c>
-      <c r="R7" s="4">
+        <v>7808.3965150639451</v>
+      </c>
+      <c r="Y7" s="4">
         <f t="shared" si="24"/>
-        <v>2156.9304067682951</v>
-      </c>
-      <c r="S7" s="4">
-        <f t="shared" si="24"/>
-        <v>2399.2317282239173</v>
-      </c>
-      <c r="T7" s="4">
-        <f t="shared" si="24"/>
-        <v>2666.4423622776712</v>
-      </c>
-      <c r="U7" s="4">
-        <f t="shared" ref="U7:Y7" si="25">T10</f>
-        <v>2961.0978207534999</v>
-      </c>
-      <c r="V7" s="4">
-        <f t="shared" si="25"/>
-        <v>3285.9507365000668</v>
-      </c>
-      <c r="W7" s="4">
-        <f t="shared" si="25"/>
-        <v>3643.9929664481565</v>
-      </c>
-      <c r="X7" s="4">
-        <f t="shared" si="25"/>
-        <v>4038.4786438891633</v>
-      </c>
-      <c r="Y7" s="4">
-        <f t="shared" si="25"/>
-        <v>4472.9484736616605</v>
+        <v>8102.7474286442848</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -2958,96 +3692,96 @@
         <v>0</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" ref="C8:H8" si="26">-B10*C4</f>
-        <v>-33.25</v>
+        <f>-B10*C4</f>
+        <v>-245</v>
       </c>
       <c r="D8" s="4">
+        <f t="shared" ref="C8:H8" si="25">-C10*D4</f>
+        <v>-426.17749999999995</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="25"/>
+        <v>-562.17927580499986</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="25"/>
+        <v>-666.00774181962231</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="25"/>
+        <v>-746.79125995537572</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="25"/>
+        <v>-810.98098966767543</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" ref="I8:M8" si="26">-H10*I4</f>
+        <v>-863.16563153376512</v>
+      </c>
+      <c r="J8" s="4">
         <f t="shared" si="26"/>
-        <v>-58.199968750000011</v>
-      </c>
-      <c r="E8" s="4">
+        <v>-906.6297911364137</v>
+      </c>
+      <c r="K8" s="4">
         <f t="shared" si="26"/>
-        <v>-77.816647760742185</v>
-      </c>
-      <c r="F8" s="4">
+        <v>-943.73915217591684</v>
+      </c>
+      <c r="L8" s="4">
         <f t="shared" si="26"/>
-        <v>-93.991794285911823</v>
-      </c>
-      <c r="G8" s="4">
+        <v>-976.20787950655608</v>
+      </c>
+      <c r="M8" s="4">
         <f t="shared" si="26"/>
-        <v>-107.95515469910323</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="26"/>
-        <v>-120.52134765884429</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" ref="I8:M8" si="27">-H10*I4</f>
-        <v>-132.24021560187498</v>
-      </c>
-      <c r="J8" s="4">
+        <v>-1005.2854205436718</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" ref="N8:T8" si="27">-M10*N4</f>
+        <v>-1031.8877951408194</v>
+      </c>
+      <c r="O8" s="4">
         <f t="shared" si="27"/>
-        <v>-143.49000084885063</v>
-      </c>
-      <c r="K8" s="4">
+        <v>-1056.6904185746223</v>
+      </c>
+      <c r="P8" s="4">
         <f t="shared" si="27"/>
-        <v>-154.53604725882124</v>
-      </c>
-      <c r="L8" s="4">
+        <v>-1080.1941086750048</v>
+      </c>
+      <c r="Q8" s="4">
         <f t="shared" si="27"/>
-        <v>-165.5683618298994</v>
-      </c>
-      <c r="M8" s="4">
+        <v>-1102.7722896185205</v>
+      </c>
+      <c r="R8" s="4">
         <f t="shared" si="27"/>
-        <v>-176.72600468501224</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" ref="N8:T8" si="28">-M10*N4</f>
-        <v>-188.11314745440828</v>
-      </c>
-      <c r="O8" s="4">
+        <v>-1124.7049353106909</v>
+      </c>
+      <c r="S8" s="4">
+        <f t="shared" si="27"/>
+        <v>-1146.203109048414</v>
+      </c>
+      <c r="T8" s="4">
+        <f t="shared" si="27"/>
+        <v>-1167.4267980605255</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="shared" ref="U8:Y8" si="28">-T10*U4</f>
+        <v>-1188.497941610919</v>
+      </c>
+      <c r="V8" s="4">
         <f t="shared" si="28"/>
-        <v>-199.80978561376193</v>
-      </c>
-      <c r="P8" s="4">
+        <v>-1209.5099957505693</v>
+      </c>
+      <c r="W8" s="4">
         <f t="shared" si="28"/>
-        <v>-211.87897361158434</v>
-      </c>
-      <c r="Q8" s="4">
+        <v>-1230.534989795972</v>
+      </c>
+      <c r="X8" s="4">
         <f t="shared" si="28"/>
-        <v>-224.37176900762088</v>
-      </c>
-      <c r="R8" s="4">
+        <v>-1251.6287571955409</v>
+      </c>
+      <c r="Y8" s="4">
         <f t="shared" si="28"/>
-        <v>-237.33064861115668</v>
-      </c>
-      <c r="S8" s="4">
-        <f t="shared" si="28"/>
-        <v>-250.7918936183674</v>
-      </c>
-      <c r="T8" s="4">
-        <f t="shared" si="28"/>
-        <v>-264.78727141006158</v>
-      </c>
-      <c r="U8" s="4">
-        <f t="shared" ref="U8:Y8" si="29">-T10*U4</f>
-        <v>-279.34523253019512</v>
-      </c>
-      <c r="V8" s="4">
-        <f t="shared" si="29"/>
-        <v>-294.49177019081338</v>
-      </c>
-      <c r="W8" s="4">
-        <f t="shared" si="29"/>
-        <v>-310.25104270900886</v>
-      </c>
-      <c r="X8" s="4">
-        <f t="shared" si="29"/>
-        <v>-326.64582798951938</v>
-      </c>
-      <c r="Y8" s="4">
-        <f t="shared" si="29"/>
-        <v>-343.69785809001814</v>
+        <v>-1272.8348311884299</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -3055,99 +3789,99 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" ref="C9:H9" si="30">B9*(1+$B$30)</f>
-        <v>151.20000000000002</v>
+        <f>B9*(1+$B$31)</f>
+        <v>1020</v>
       </c>
       <c r="D9" s="4">
+        <f t="shared" ref="C9:H9" si="29">C9*(1+$B$31)</f>
+        <v>1040.4000000000001</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="29"/>
+        <v>1061.2080000000001</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="29"/>
+        <v>1082.4321600000001</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="29"/>
+        <v>1104.0808032</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="29"/>
+        <v>1126.1624192639999</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" ref="I9:M9" si="30">H9*(1+$B$31)</f>
+        <v>1148.68566764928</v>
+      </c>
+      <c r="J9" s="4">
         <f t="shared" si="30"/>
-        <v>163.29600000000002</v>
-      </c>
-      <c r="E9" s="4">
+        <v>1171.6593810022657</v>
+      </c>
+      <c r="K9" s="4">
         <f t="shared" si="30"/>
-        <v>176.35968000000003</v>
-      </c>
-      <c r="F9" s="4">
+        <v>1195.0925686223111</v>
+      </c>
+      <c r="L9" s="4">
         <f t="shared" si="30"/>
-        <v>190.46845440000004</v>
-      </c>
-      <c r="G9" s="4">
+        <v>1218.9944199947574</v>
+      </c>
+      <c r="M9" s="4">
         <f t="shared" si="30"/>
-        <v>205.70593075200006</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="30"/>
-        <v>222.16240521216008</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" ref="I9:M9" si="31">H9*(1+$B$30)</f>
-        <v>239.93539762913289</v>
-      </c>
-      <c r="J9" s="4">
+        <v>1243.3743083946526</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" ref="N9:T9" si="31">M9*(1+$B$31)</f>
+        <v>1268.2417945625457</v>
+      </c>
+      <c r="O9" s="4">
         <f t="shared" si="31"/>
-        <v>259.13022943946356</v>
-      </c>
-      <c r="K9" s="4">
+        <v>1293.6066304537967</v>
+      </c>
+      <c r="P9" s="4">
         <f t="shared" si="31"/>
-        <v>279.86064779462066</v>
-      </c>
-      <c r="L9" s="4">
+        <v>1319.4787630628728</v>
+      </c>
+      <c r="Q9" s="4">
         <f t="shared" si="31"/>
-        <v>302.24949961819033</v>
-      </c>
-      <c r="M9" s="4">
+        <v>1345.8683383241303</v>
+      </c>
+      <c r="R9" s="4">
         <f t="shared" si="31"/>
-        <v>326.42945958764557</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" ref="N9:T9" si="32">M9*(1+$B$30)</f>
-        <v>352.54381635465722</v>
-      </c>
-      <c r="O9" s="4">
+        <v>1372.785705090613</v>
+      </c>
+      <c r="S9" s="4">
+        <f t="shared" si="31"/>
+        <v>1400.2414191924252</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="31"/>
+        <v>1428.2462475762736</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" ref="U9:Y9" si="32">T9*(1+$B$31)</f>
+        <v>1456.811172527799</v>
+      </c>
+      <c r="V9" s="4">
         <f t="shared" si="32"/>
-        <v>380.74732166302982</v>
-      </c>
-      <c r="P9" s="4">
+        <v>1485.947395978355</v>
+      </c>
+      <c r="W9" s="4">
         <f t="shared" si="32"/>
-        <v>411.20710739607222</v>
-      </c>
-      <c r="Q9" s="4">
+        <v>1515.6663438979222</v>
+      </c>
+      <c r="X9" s="4">
         <f t="shared" si="32"/>
-        <v>444.10367598775804</v>
-      </c>
-      <c r="R9" s="4">
+        <v>1545.9796707758805</v>
+      </c>
+      <c r="Y9" s="4">
         <f t="shared" si="32"/>
-        <v>479.63197006677871</v>
-      </c>
-      <c r="S9" s="4">
-        <f t="shared" si="32"/>
-        <v>518.002527672121</v>
-      </c>
-      <c r="T9" s="4">
-        <f t="shared" si="32"/>
-        <v>559.44272988589069</v>
-      </c>
-      <c r="U9" s="4">
-        <f t="shared" ref="U9:Y9" si="33">T9*(1+$B$30)</f>
-        <v>604.19814827676203</v>
-      </c>
-      <c r="V9" s="4">
-        <f t="shared" si="33"/>
-        <v>652.53400013890302</v>
-      </c>
-      <c r="W9" s="4">
-        <f t="shared" si="33"/>
-        <v>704.73672015001534</v>
-      </c>
-      <c r="X9" s="4">
-        <f t="shared" si="33"/>
-        <v>761.11565776201667</v>
-      </c>
-      <c r="Y9" s="4">
-        <f t="shared" si="33"/>
-        <v>822.0049103829781</v>
+        <v>1576.8992641913983</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
@@ -3155,100 +3889,100 @@
         <v>4</v>
       </c>
       <c r="B10" s="4">
-        <f t="shared" ref="B10:H10" si="34">SUM(B7:B9)</f>
-        <v>140</v>
+        <f t="shared" ref="B10:H10" si="33">SUM(B7:B9)</f>
+        <v>1000</v>
       </c>
       <c r="C10" s="4">
+        <f t="shared" si="33"/>
+        <v>1775</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="33"/>
+        <v>2389.2224999999999</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="33"/>
+        <v>2888.2512241949998</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="33"/>
+        <v>3304.6756423753777</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="33"/>
+        <v>3661.9651856200021</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="33"/>
+        <v>3977.1466152163266</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" ref="I10:M10" si="34">SUM(I7:I9)</f>
+        <v>4262.6666513318414</v>
+      </c>
+      <c r="J10" s="4">
         <f t="shared" si="34"/>
-        <v>257.95000000000005</v>
-      </c>
-      <c r="D10" s="4">
+        <v>4527.6962411976938</v>
+      </c>
+      <c r="K10" s="4">
         <f t="shared" si="34"/>
-        <v>363.04603125000006</v>
-      </c>
-      <c r="E10" s="4">
+        <v>4779.0496576440883</v>
+      </c>
+      <c r="L10" s="4">
         <f t="shared" si="34"/>
-        <v>461.58906348925791</v>
-      </c>
-      <c r="F10" s="4">
+        <v>5021.8361981322896</v>
+      </c>
+      <c r="M10" s="4">
         <f t="shared" si="34"/>
-        <v>558.0657236033461</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="34"/>
-        <v>655.81649965624297</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="34"/>
-        <v>757.45755720955867</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" ref="I10:M10" si="35">SUM(I7:I9)</f>
-        <v>865.15273923681661</v>
-      </c>
-      <c r="J10" s="4">
+        <v>5259.9250859832709</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" ref="N10:T10" si="35">SUM(N7:N9)</f>
+        <v>5496.2790854049972</v>
+      </c>
+      <c r="O10" s="4">
         <f t="shared" si="35"/>
-        <v>980.79296782742949</v>
-      </c>
-      <c r="K10" s="4">
+        <v>5733.1952972841718</v>
+      </c>
+      <c r="P10" s="4">
         <f t="shared" si="35"/>
-        <v>1106.1175683632289</v>
-      </c>
-      <c r="L10" s="4">
+        <v>5972.4799516720395</v>
+      </c>
+      <c r="Q10" s="4">
         <f t="shared" si="35"/>
-        <v>1242.7987061515198</v>
-      </c>
-      <c r="M10" s="4">
+        <v>6215.5760003776495</v>
+      </c>
+      <c r="R10" s="4">
         <f t="shared" si="35"/>
-        <v>1392.5021610541532</v>
-      </c>
-      <c r="N10" s="4">
-        <f t="shared" ref="N10:T10" si="36">SUM(N7:N9)</f>
-        <v>1556.9328299544022</v>
-      </c>
-      <c r="O10" s="4">
-        <f t="shared" si="36"/>
-        <v>1737.8703660036701</v>
-      </c>
-      <c r="P10" s="4">
-        <f t="shared" si="36"/>
-        <v>1937.198499788158</v>
-      </c>
-      <c r="Q10" s="4">
-        <f t="shared" si="36"/>
-        <v>2156.9304067682951</v>
-      </c>
-      <c r="R10" s="4">
-        <f t="shared" si="36"/>
-        <v>2399.2317282239173</v>
+        <v>6463.6567701575714</v>
       </c>
       <c r="S10" s="4">
-        <f t="shared" si="36"/>
-        <v>2666.4423622776712</v>
+        <f t="shared" si="35"/>
+        <v>6717.6950803015825</v>
       </c>
       <c r="T10" s="4">
-        <f t="shared" si="36"/>
-        <v>2961.0978207534999</v>
+        <f t="shared" si="35"/>
+        <v>6978.5145298173302</v>
       </c>
       <c r="U10" s="4">
-        <f t="shared" ref="U10" si="37">SUM(U7:U9)</f>
-        <v>3285.9507365000668</v>
+        <f t="shared" ref="U10" si="36">SUM(U7:U9)</f>
+        <v>7246.8277607342097</v>
       </c>
       <c r="V10" s="4">
-        <f t="shared" ref="V10" si="38">SUM(V7:V9)</f>
-        <v>3643.9929664481565</v>
+        <f t="shared" ref="V10" si="37">SUM(V7:V9)</f>
+        <v>7523.2651609619952</v>
       </c>
       <c r="W10" s="4">
-        <f t="shared" ref="W10" si="39">SUM(W7:W9)</f>
-        <v>4038.4786438891633</v>
+        <f t="shared" ref="W10" si="38">SUM(W7:W9)</f>
+        <v>7808.3965150639451</v>
       </c>
       <c r="X10" s="4">
-        <f t="shared" ref="X10" si="40">SUM(X7:X9)</f>
-        <v>4472.9484736616605</v>
+        <f t="shared" ref="X10" si="39">SUM(X7:X9)</f>
+        <v>8102.7474286442848</v>
       </c>
       <c r="Y10" s="4">
-        <f t="shared" ref="Y10" si="41">SUM(Y7:Y9)</f>
-        <v>4951.2555259546198</v>
+        <f t="shared" ref="Y10" si="40">SUM(Y7:Y9)</f>
+        <v>8406.811861647253</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -3256,100 +3990,100 @@
         <v>30</v>
       </c>
       <c r="B12" s="7">
-        <f>B10*$B$31</f>
-        <v>4200</v>
+        <f>B10*$B$32</f>
+        <v>5000</v>
       </c>
       <c r="C12" s="8">
-        <f t="shared" ref="C12:N12" si="42">C10*$B$31</f>
-        <v>7738.5000000000018</v>
+        <f t="shared" ref="C12:N12" si="41">C10*$B$32</f>
+        <v>8875</v>
       </c>
       <c r="D12" s="8">
+        <f t="shared" si="41"/>
+        <v>11946.112499999999</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="41"/>
+        <v>14441.256120974998</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="41"/>
+        <v>16523.378211876887</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="41"/>
+        <v>18309.82592810001</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="41"/>
+        <v>19885.733076081633</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="41"/>
+        <v>21313.333256659207</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="41"/>
+        <v>22638.481205988468</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="41"/>
+        <v>23895.248288220442</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="41"/>
+        <v>25109.180990661447</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="41"/>
+        <v>26299.625429916356</v>
+      </c>
+      <c r="N12" s="8">
+        <f t="shared" si="41"/>
+        <v>27481.395427024985</v>
+      </c>
+      <c r="O12" s="8">
+        <f t="shared" ref="O12:Y12" si="42">O10*$B$32</f>
+        <v>28665.976486420859</v>
+      </c>
+      <c r="P12" s="8">
         <f t="shared" si="42"/>
-        <v>10891.380937500002</v>
-      </c>
-      <c r="E12" s="8">
+        <v>29862.399758360196</v>
+      </c>
+      <c r="Q12" s="8">
         <f t="shared" si="42"/>
-        <v>13847.671904677738</v>
-      </c>
-      <c r="F12" s="8">
+        <v>31077.880001888247</v>
+      </c>
+      <c r="R12" s="8">
         <f t="shared" si="42"/>
-        <v>16741.971708100384</v>
-      </c>
-      <c r="G12" s="8">
+        <v>32318.283850787855</v>
+      </c>
+      <c r="S12" s="8">
         <f t="shared" si="42"/>
-        <v>19674.494989687289</v>
-      </c>
-      <c r="H12" s="8">
+        <v>33588.475401507909</v>
+      </c>
+      <c r="T12" s="8">
         <f t="shared" si="42"/>
-        <v>22723.726716286761</v>
-      </c>
-      <c r="I12" s="8">
+        <v>34892.572649086651</v>
+      </c>
+      <c r="U12" s="8">
         <f t="shared" si="42"/>
-        <v>25954.582177104498</v>
-      </c>
-      <c r="J12" s="8">
+        <v>36234.138803671049</v>
+      </c>
+      <c r="V12" s="8">
         <f t="shared" si="42"/>
-        <v>29423.789034822883</v>
-      </c>
-      <c r="K12" s="8">
+        <v>37616.325804809974</v>
+      </c>
+      <c r="W12" s="8">
         <f t="shared" si="42"/>
-        <v>33183.527050896868</v>
-      </c>
-      <c r="L12" s="8">
+        <v>39041.982575319722</v>
+      </c>
+      <c r="X12" s="8">
         <f t="shared" si="42"/>
-        <v>37283.961184545595</v>
-      </c>
-      <c r="M12" s="8">
+        <v>40513.737143221428</v>
+      </c>
+      <c r="Y12" s="8">
         <f t="shared" si="42"/>
-        <v>41775.064831624601</v>
-      </c>
-      <c r="N12" s="8">
-        <f t="shared" si="42"/>
-        <v>46707.984898632065</v>
-      </c>
-      <c r="O12" s="8">
-        <f t="shared" ref="O12:Y12" si="43">O10*$B$31</f>
-        <v>52136.110980110105</v>
-      </c>
-      <c r="P12" s="8">
-        <f t="shared" si="43"/>
-        <v>58115.954993644737</v>
-      </c>
-      <c r="Q12" s="8">
-        <f t="shared" si="43"/>
-        <v>64707.912203048851</v>
-      </c>
-      <c r="R12" s="8">
-        <f t="shared" si="43"/>
-        <v>71976.951846717522</v>
-      </c>
-      <c r="S12" s="8">
-        <f t="shared" si="43"/>
-        <v>79993.270868330132</v>
-      </c>
-      <c r="T12" s="8">
-        <f t="shared" si="43"/>
-        <v>88832.934622604997</v>
-      </c>
-      <c r="U12" s="8">
-        <f t="shared" si="43"/>
-        <v>98578.522095002001</v>
-      </c>
-      <c r="V12" s="8">
-        <f t="shared" si="43"/>
-        <v>109319.7889934447</v>
-      </c>
-      <c r="W12" s="8">
-        <f t="shared" si="43"/>
-        <v>121154.35931667491</v>
-      </c>
-      <c r="X12" s="8">
-        <f t="shared" si="43"/>
-        <v>134188.45420984982</v>
-      </c>
-      <c r="Y12" s="8">
-        <f t="shared" si="43"/>
-        <v>148537.66577863859</v>
+        <v>42034.059308236261</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
@@ -3357,862 +4091,1012 @@
         <v>32</v>
       </c>
       <c r="B14" s="10">
-        <f>$B$32</f>
-        <v>4000</v>
-      </c>
-      <c r="C14" s="8">
-        <f t="shared" ref="C14:Y14" si="44">$B$32</f>
-        <v>4000</v>
-      </c>
-      <c r="D14" s="8">
-        <f t="shared" si="44"/>
-        <v>4000</v>
-      </c>
-      <c r="E14" s="8">
-        <f t="shared" si="44"/>
-        <v>4000</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="44"/>
-        <v>4000</v>
-      </c>
-      <c r="G14" s="8">
-        <f t="shared" si="44"/>
-        <v>4000</v>
-      </c>
-      <c r="H14" s="8">
-        <f t="shared" si="44"/>
-        <v>4000</v>
-      </c>
-      <c r="I14" s="8">
-        <f t="shared" si="44"/>
-        <v>4000</v>
-      </c>
-      <c r="J14" s="8">
-        <f t="shared" si="44"/>
-        <v>4000</v>
-      </c>
-      <c r="K14" s="8">
-        <f t="shared" si="44"/>
-        <v>4000</v>
-      </c>
-      <c r="L14" s="8">
-        <f t="shared" si="44"/>
-        <v>4000</v>
-      </c>
-      <c r="M14" s="8">
-        <f t="shared" si="44"/>
-        <v>4000</v>
-      </c>
-      <c r="N14" s="8">
-        <f t="shared" si="44"/>
-        <v>4000</v>
-      </c>
-      <c r="O14" s="8">
-        <f t="shared" si="44"/>
-        <v>4000</v>
-      </c>
-      <c r="P14" s="8">
-        <f t="shared" si="44"/>
-        <v>4000</v>
-      </c>
-      <c r="Q14" s="8">
-        <f t="shared" si="44"/>
-        <v>4000</v>
-      </c>
-      <c r="R14" s="8">
-        <f t="shared" si="44"/>
-        <v>4000</v>
-      </c>
-      <c r="S14" s="8">
-        <f t="shared" si="44"/>
-        <v>4000</v>
-      </c>
-      <c r="T14" s="8">
-        <f t="shared" si="44"/>
-        <v>4000</v>
-      </c>
-      <c r="U14" s="8">
-        <f t="shared" si="44"/>
-        <v>4000</v>
-      </c>
-      <c r="V14" s="8">
-        <f t="shared" si="44"/>
-        <v>4000</v>
-      </c>
-      <c r="W14" s="8">
-        <f t="shared" si="44"/>
-        <v>4000</v>
-      </c>
-      <c r="X14" s="8">
-        <f t="shared" si="44"/>
-        <v>4000</v>
-      </c>
-      <c r="Y14" s="8">
-        <f t="shared" si="44"/>
-        <v>4000</v>
+        <f>B23*B9</f>
+        <v>10000</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" ref="C14:Y14" si="43">C23*C9</f>
+        <v>10200</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="43"/>
+        <v>10404</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="43"/>
+        <v>10612.080000000002</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="43"/>
+        <v>10824.321600000001</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="43"/>
+        <v>11040.808032000001</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="43"/>
+        <v>11261.62419264</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="43"/>
+        <v>11486.8566764928</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" si="43"/>
+        <v>11716.593810022658</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" si="43"/>
+        <v>11950.92568622311</v>
+      </c>
+      <c r="L14" s="10">
+        <f t="shared" si="43"/>
+        <v>12189.944199947575</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" si="43"/>
+        <v>12433.743083946527</v>
+      </c>
+      <c r="N14" s="10">
+        <f t="shared" si="43"/>
+        <v>12682.417945625457</v>
+      </c>
+      <c r="O14" s="10">
+        <f t="shared" si="43"/>
+        <v>12936.066304537966</v>
+      </c>
+      <c r="P14" s="10">
+        <f t="shared" si="43"/>
+        <v>13194.787630628727</v>
+      </c>
+      <c r="Q14" s="10">
+        <f t="shared" si="43"/>
+        <v>13458.683383241303</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="43"/>
+        <v>13727.85705090613</v>
+      </c>
+      <c r="S14" s="10">
+        <f t="shared" si="43"/>
+        <v>14002.414191924252</v>
+      </c>
+      <c r="T14" s="10">
+        <f t="shared" si="43"/>
+        <v>14282.462475762735</v>
+      </c>
+      <c r="U14" s="10">
+        <f t="shared" si="43"/>
+        <v>14568.111725277991</v>
+      </c>
+      <c r="V14" s="10">
+        <f t="shared" si="43"/>
+        <v>14859.473959783551</v>
+      </c>
+      <c r="W14" s="10">
+        <f t="shared" si="43"/>
+        <v>15156.663438979222</v>
+      </c>
+      <c r="X14" s="10">
+        <f t="shared" si="43"/>
+        <v>15459.796707758805</v>
+      </c>
+      <c r="Y14" s="10">
+        <f t="shared" si="43"/>
+        <v>15768.992641913983</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="8">
-        <f>$B$33</f>
-        <v>29000</v>
-      </c>
-      <c r="C15" s="8">
-        <f t="shared" ref="C15:Y15" si="45">$B$33</f>
-        <v>29000</v>
-      </c>
-      <c r="D15" s="8">
-        <f t="shared" si="45"/>
-        <v>29000</v>
-      </c>
-      <c r="E15" s="8">
-        <f t="shared" si="45"/>
-        <v>29000</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="45"/>
-        <v>29000</v>
-      </c>
-      <c r="G15" s="8">
-        <f t="shared" si="45"/>
-        <v>29000</v>
-      </c>
-      <c r="H15" s="8">
-        <f t="shared" si="45"/>
-        <v>29000</v>
-      </c>
-      <c r="I15" s="8">
-        <f t="shared" si="45"/>
-        <v>29000</v>
-      </c>
-      <c r="J15" s="8">
-        <f t="shared" si="45"/>
-        <v>29000</v>
-      </c>
-      <c r="K15" s="8">
-        <f t="shared" si="45"/>
-        <v>29000</v>
-      </c>
-      <c r="L15" s="8">
-        <f t="shared" si="45"/>
-        <v>29000</v>
-      </c>
-      <c r="M15" s="8">
-        <f t="shared" si="45"/>
-        <v>29000</v>
-      </c>
-      <c r="N15" s="8">
-        <f t="shared" si="45"/>
-        <v>29000</v>
-      </c>
-      <c r="O15" s="8">
-        <f t="shared" si="45"/>
-        <v>29000</v>
-      </c>
-      <c r="P15" s="8">
-        <f t="shared" si="45"/>
-        <v>29000</v>
-      </c>
-      <c r="Q15" s="8">
-        <f t="shared" si="45"/>
-        <v>29000</v>
-      </c>
-      <c r="R15" s="8">
-        <f t="shared" si="45"/>
-        <v>29000</v>
-      </c>
-      <c r="S15" s="8">
-        <f t="shared" si="45"/>
-        <v>29000</v>
-      </c>
-      <c r="T15" s="8">
-        <f t="shared" si="45"/>
-        <v>29000</v>
-      </c>
-      <c r="U15" s="8">
-        <f t="shared" si="45"/>
-        <v>29000</v>
-      </c>
-      <c r="V15" s="8">
-        <f t="shared" si="45"/>
-        <v>29000</v>
-      </c>
-      <c r="W15" s="8">
-        <f t="shared" si="45"/>
-        <v>29000</v>
-      </c>
-      <c r="X15" s="8">
-        <f t="shared" si="45"/>
-        <v>29000</v>
-      </c>
-      <c r="Y15" s="8">
-        <f t="shared" si="45"/>
-        <v>29000</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="10">
+        <f>B25*$B$37</f>
+        <v>15500</v>
+      </c>
+      <c r="C15" s="10">
+        <f t="shared" ref="C15:Y15" si="44">C25*$B$37</f>
+        <v>15887.500000000002</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="44"/>
+        <v>16194.61125</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" si="44"/>
+        <v>16444.125612097501</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="44"/>
+        <v>16652.337821187688</v>
+      </c>
+      <c r="G15" s="10">
+        <f t="shared" si="44"/>
+        <v>16830.98259281</v>
+      </c>
+      <c r="H15" s="10">
+        <f t="shared" si="44"/>
+        <v>16988.573307608163</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="44"/>
+        <v>17131.333325665921</v>
+      </c>
+      <c r="J15" s="10">
+        <f t="shared" si="44"/>
+        <v>17263.848120598846</v>
+      </c>
+      <c r="K15" s="10">
+        <f t="shared" si="44"/>
+        <v>17389.524828822046</v>
+      </c>
+      <c r="L15" s="10">
+        <f t="shared" si="44"/>
+        <v>17510.918099066144</v>
+      </c>
+      <c r="M15" s="10">
+        <f t="shared" si="44"/>
+        <v>17629.962542991634</v>
+      </c>
+      <c r="N15" s="10">
+        <f t="shared" si="44"/>
+        <v>17748.139542702498</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" si="44"/>
+        <v>17866.597648642088</v>
+      </c>
+      <c r="P15" s="10">
+        <f t="shared" si="44"/>
+        <v>17986.239975836019</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" si="44"/>
+        <v>18107.788000188826</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="44"/>
+        <v>18231.828385078785</v>
+      </c>
+      <c r="S15" s="10">
+        <f t="shared" si="44"/>
+        <v>18358.847540150789</v>
+      </c>
+      <c r="T15" s="10">
+        <f t="shared" si="44"/>
+        <v>18489.257264908665</v>
+      </c>
+      <c r="U15" s="10">
+        <f t="shared" si="44"/>
+        <v>18623.413880367105</v>
+      </c>
+      <c r="V15" s="10">
+        <f t="shared" si="44"/>
+        <v>18761.632580480997</v>
+      </c>
+      <c r="W15" s="10">
+        <f t="shared" si="44"/>
+        <v>18904.198257531971</v>
+      </c>
+      <c r="X15" s="10">
+        <f t="shared" si="44"/>
+        <v>19051.373714322141</v>
+      </c>
+      <c r="Y15" s="10">
+        <f t="shared" si="44"/>
+        <v>19203.405930823628</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="8">
+        <f>$B$33</f>
+        <v>1000</v>
+      </c>
+      <c r="C16" s="8">
+        <f>$B$33</f>
+        <v>1000</v>
+      </c>
+      <c r="D16" s="8">
+        <f>$B$33</f>
+        <v>1000</v>
+      </c>
+      <c r="E16" s="8">
+        <f>$B$33</f>
+        <v>1000</v>
+      </c>
+      <c r="F16" s="8">
+        <f>$B$33</f>
+        <v>1000</v>
+      </c>
+      <c r="G16" s="8">
+        <f>$B$33</f>
+        <v>1000</v>
+      </c>
+      <c r="H16" s="8">
+        <f>$B$33</f>
+        <v>1000</v>
+      </c>
+      <c r="I16" s="8">
+        <f>$B$33</f>
+        <v>1000</v>
+      </c>
+      <c r="J16" s="8">
+        <f>$B$33</f>
+        <v>1000</v>
+      </c>
+      <c r="K16" s="8">
+        <f>$B$33</f>
+        <v>1000</v>
+      </c>
+      <c r="L16" s="8">
+        <f>$B$33</f>
+        <v>1000</v>
+      </c>
+      <c r="M16" s="8">
+        <f>$B$33</f>
+        <v>1000</v>
+      </c>
+      <c r="N16" s="8">
+        <f>$B$33</f>
+        <v>1000</v>
+      </c>
+      <c r="O16" s="8">
+        <f>$B$33</f>
+        <v>1000</v>
+      </c>
+      <c r="P16" s="8">
+        <f>$B$33</f>
+        <v>1000</v>
+      </c>
+      <c r="Q16" s="8">
+        <f>$B$33</f>
+        <v>1000</v>
+      </c>
+      <c r="R16" s="8">
+        <f>$B$33</f>
+        <v>1000</v>
+      </c>
+      <c r="S16" s="8">
+        <f>$B$33</f>
+        <v>1000</v>
+      </c>
+      <c r="T16" s="8">
+        <f>$B$33</f>
+        <v>1000</v>
+      </c>
+      <c r="U16" s="8">
+        <f>$B$33</f>
+        <v>1000</v>
+      </c>
+      <c r="V16" s="8">
+        <f>$B$33</f>
+        <v>1000</v>
+      </c>
+      <c r="W16" s="8">
+        <f>$B$33</f>
+        <v>1000</v>
+      </c>
+      <c r="X16" s="8">
+        <f>$B$33</f>
+        <v>1000</v>
+      </c>
+      <c r="Y16" s="8">
+        <f>$B$33</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="7">
-        <f>SUM(B14:B15)</f>
-        <v>33000</v>
-      </c>
-      <c r="C16" s="7">
-        <f t="shared" ref="C16:M16" si="46">SUM(C14:C15)</f>
-        <v>33000</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="B17" s="7">
+        <f>SUM(B14:B16)</f>
+        <v>26500</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" ref="C17:M17" si="45">SUM(C14:C16)</f>
+        <v>27087.5</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="45"/>
+        <v>27598.611250000002</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="45"/>
+        <v>28056.205612097503</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="45"/>
+        <v>28476.659421187687</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="45"/>
+        <v>28871.790624810001</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="45"/>
+        <v>29250.197500248163</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="45"/>
+        <v>29618.190002158721</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="45"/>
+        <v>29980.441930621506</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="45"/>
+        <v>30340.450515045159</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="45"/>
+        <v>30700.862299013719</v>
+      </c>
+      <c r="M17" s="7">
+        <f t="shared" si="45"/>
+        <v>31063.705626938161</v>
+      </c>
+      <c r="N17" s="7">
+        <f t="shared" ref="N17:O17" si="46">SUM(N14:N16)</f>
+        <v>31430.557488327955</v>
+      </c>
+      <c r="O17" s="7">
         <f t="shared" si="46"/>
-        <v>33000</v>
-      </c>
-      <c r="E16" s="7">
-        <f t="shared" si="46"/>
-        <v>33000</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" si="46"/>
-        <v>33000</v>
-      </c>
-      <c r="G16" s="7">
-        <f t="shared" si="46"/>
-        <v>33000</v>
-      </c>
-      <c r="H16" s="7">
-        <f t="shared" si="46"/>
-        <v>33000</v>
-      </c>
-      <c r="I16" s="7">
-        <f t="shared" si="46"/>
-        <v>33000</v>
-      </c>
-      <c r="J16" s="7">
-        <f t="shared" si="46"/>
-        <v>33000</v>
-      </c>
-      <c r="K16" s="7">
-        <f t="shared" si="46"/>
-        <v>33000</v>
-      </c>
-      <c r="L16" s="7">
-        <f t="shared" si="46"/>
-        <v>33000</v>
-      </c>
-      <c r="M16" s="7">
-        <f t="shared" si="46"/>
-        <v>33000</v>
-      </c>
-      <c r="N16" s="7">
-        <f t="shared" ref="N16:O16" si="47">SUM(N14:N15)</f>
-        <v>33000</v>
-      </c>
-      <c r="O16" s="7">
-        <f t="shared" si="47"/>
-        <v>33000</v>
-      </c>
-      <c r="P16" s="7">
-        <f t="shared" ref="P16" si="48">SUM(P14:P15)</f>
-        <v>33000</v>
-      </c>
-      <c r="Q16" s="7">
-        <f t="shared" ref="Q16" si="49">SUM(Q14:Q15)</f>
-        <v>33000</v>
-      </c>
-      <c r="R16" s="7">
-        <f t="shared" ref="R16" si="50">SUM(R14:R15)</f>
-        <v>33000</v>
-      </c>
-      <c r="S16" s="7">
-        <f t="shared" ref="S16" si="51">SUM(S14:S15)</f>
-        <v>33000</v>
-      </c>
-      <c r="T16" s="7">
-        <f t="shared" ref="T16" si="52">SUM(T14:T15)</f>
-        <v>33000</v>
-      </c>
-      <c r="U16" s="7">
-        <f t="shared" ref="U16" si="53">SUM(U14:U15)</f>
-        <v>33000</v>
-      </c>
-      <c r="V16" s="7">
-        <f t="shared" ref="V16" si="54">SUM(V14:V15)</f>
-        <v>33000</v>
-      </c>
-      <c r="W16" s="7">
-        <f t="shared" ref="W16" si="55">SUM(W14:W15)</f>
-        <v>33000</v>
-      </c>
-      <c r="X16" s="7">
-        <f t="shared" ref="X16" si="56">SUM(X14:X15)</f>
-        <v>33000</v>
-      </c>
-      <c r="Y16" s="7">
-        <f t="shared" ref="Y16" si="57">SUM(Y14:Y15)</f>
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="7">
-        <f>B12-B16</f>
-        <v>-28800</v>
-      </c>
-      <c r="C18" s="7">
-        <f t="shared" ref="C18:N18" si="58">C12-C16</f>
-        <v>-25261.5</v>
-      </c>
-      <c r="D18" s="7">
-        <f t="shared" si="58"/>
-        <v>-22108.619062499998</v>
-      </c>
-      <c r="E18" s="7">
-        <f t="shared" si="58"/>
-        <v>-19152.328095322264</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="shared" si="58"/>
-        <v>-16258.028291899616</v>
-      </c>
-      <c r="G18" s="7">
-        <f t="shared" si="58"/>
-        <v>-13325.505010312711</v>
-      </c>
-      <c r="H18" s="7">
-        <f t="shared" si="58"/>
-        <v>-10276.273283713239</v>
-      </c>
-      <c r="I18" s="7">
-        <f t="shared" si="58"/>
-        <v>-7045.4178228955025</v>
-      </c>
-      <c r="J18" s="7">
-        <f t="shared" si="58"/>
-        <v>-3576.210965177117</v>
-      </c>
-      <c r="K18" s="7">
-        <f t="shared" si="58"/>
-        <v>183.52705089686788</v>
-      </c>
-      <c r="L18" s="7">
-        <f t="shared" si="58"/>
-        <v>4283.9611845455947</v>
-      </c>
-      <c r="M18" s="7">
-        <f t="shared" si="58"/>
-        <v>8775.0648316246006</v>
-      </c>
-      <c r="N18" s="7">
-        <f t="shared" si="58"/>
-        <v>13707.984898632065</v>
-      </c>
-      <c r="O18" s="7">
-        <f t="shared" ref="O18:Y18" si="59">O12-O16</f>
-        <v>19136.110980110105</v>
-      </c>
-      <c r="P18" s="7">
-        <f t="shared" si="59"/>
-        <v>25115.954993644737</v>
-      </c>
-      <c r="Q18" s="7">
-        <f t="shared" si="59"/>
-        <v>31707.912203048851</v>
-      </c>
-      <c r="R18" s="7">
-        <f t="shared" si="59"/>
-        <v>38976.951846717522</v>
-      </c>
-      <c r="S18" s="7">
-        <f t="shared" si="59"/>
-        <v>46993.270868330132</v>
-      </c>
-      <c r="T18" s="7">
-        <f t="shared" si="59"/>
-        <v>55832.934622604997</v>
-      </c>
-      <c r="U18" s="7">
-        <f t="shared" si="59"/>
-        <v>65578.522095002001</v>
-      </c>
-      <c r="V18" s="7">
-        <f t="shared" si="59"/>
-        <v>76319.788993444701</v>
-      </c>
-      <c r="W18" s="7">
-        <f t="shared" si="59"/>
-        <v>88154.359316674905</v>
-      </c>
-      <c r="X18" s="7">
-        <f t="shared" si="59"/>
-        <v>101188.45420984982</v>
-      </c>
-      <c r="Y18" s="7">
-        <f t="shared" si="59"/>
-        <v>115537.66577863859</v>
+        <v>31802.663953180054</v>
+      </c>
+      <c r="P17" s="7">
+        <f t="shared" ref="P17" si="47">SUM(P14:P16)</f>
+        <v>32181.027606464748</v>
+      </c>
+      <c r="Q17" s="7">
+        <f t="shared" ref="Q17" si="48">SUM(Q14:Q16)</f>
+        <v>32566.471383430129</v>
+      </c>
+      <c r="R17" s="7">
+        <f t="shared" ref="R17" si="49">SUM(R14:R16)</f>
+        <v>32959.685435984917</v>
+      </c>
+      <c r="S17" s="7">
+        <f t="shared" ref="S17" si="50">SUM(S14:S16)</f>
+        <v>33361.261732075043</v>
+      </c>
+      <c r="T17" s="7">
+        <f t="shared" ref="T17" si="51">SUM(T14:T16)</f>
+        <v>33771.719740671397</v>
+      </c>
+      <c r="U17" s="7">
+        <f t="shared" ref="U17" si="52">SUM(U14:U16)</f>
+        <v>34191.525605645096</v>
+      </c>
+      <c r="V17" s="7">
+        <f t="shared" ref="V17" si="53">SUM(V14:V16)</f>
+        <v>34621.106540264547</v>
+      </c>
+      <c r="W17" s="7">
+        <f t="shared" ref="W17" si="54">SUM(W14:W16)</f>
+        <v>35060.861696511194</v>
+      </c>
+      <c r="X17" s="7">
+        <f t="shared" ref="X17" si="55">SUM(X14:X16)</f>
+        <v>35511.170422080948</v>
+      </c>
+      <c r="Y17" s="7">
+        <f t="shared" ref="Y17" si="56">SUM(Y14:Y16)</f>
+        <v>35972.398572737613</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="5">
-        <f>$B$34</f>
-        <v>150000</v>
-      </c>
-      <c r="C19" s="5">
-        <f>B19+B18</f>
-        <v>121200</v>
-      </c>
-      <c r="D19" s="5">
-        <f t="shared" ref="D19:M19" si="60">C19+C18</f>
-        <v>95938.5</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" si="60"/>
-        <v>73829.880937499998</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="60"/>
-        <v>54677.552842177734</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="60"/>
-        <v>38419.524550278118</v>
-      </c>
-      <c r="H19" s="5">
-        <f t="shared" si="60"/>
-        <v>25094.019539965408</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" si="60"/>
-        <v>14817.746256252169</v>
-      </c>
-      <c r="J19" s="5">
-        <f t="shared" si="60"/>
-        <v>7772.3284333566662</v>
-      </c>
-      <c r="K19" s="5">
-        <f t="shared" si="60"/>
-        <v>4196.1174681795492</v>
-      </c>
-      <c r="L19" s="5">
-        <f t="shared" si="60"/>
-        <v>4379.6445190764171</v>
-      </c>
-      <c r="M19" s="5">
-        <f t="shared" si="60"/>
-        <v>8663.6057036220118</v>
-      </c>
-      <c r="N19" s="5">
-        <f>M19+M18</f>
-        <v>17438.670535246612</v>
-      </c>
-      <c r="O19" s="5">
-        <f>N19+N18</f>
-        <v>31146.655433878677</v>
-      </c>
-      <c r="P19" s="5">
-        <f t="shared" ref="P19:Y19" si="61">O19+O18</f>
-        <v>50282.766413988778</v>
-      </c>
-      <c r="Q19" s="5">
-        <f t="shared" si="61"/>
-        <v>75398.721407633508</v>
-      </c>
-      <c r="R19" s="5">
-        <f t="shared" si="61"/>
-        <v>107106.63361068236</v>
-      </c>
-      <c r="S19" s="5">
-        <f t="shared" si="61"/>
-        <v>146083.58545739989</v>
-      </c>
-      <c r="T19" s="5">
-        <f t="shared" si="61"/>
-        <v>193076.85632573004</v>
-      </c>
-      <c r="U19" s="5">
-        <f t="shared" si="61"/>
-        <v>248909.79094833502</v>
-      </c>
-      <c r="V19" s="5">
-        <f t="shared" si="61"/>
-        <v>314488.31304333702</v>
-      </c>
-      <c r="W19" s="5">
-        <f t="shared" si="61"/>
-        <v>390808.10203678173</v>
-      </c>
-      <c r="X19" s="5">
-        <f t="shared" si="61"/>
-        <v>478962.4613534566</v>
-      </c>
-      <c r="Y19" s="5">
-        <f t="shared" si="61"/>
-        <v>580150.91556330642</v>
+        <v>33</v>
+      </c>
+      <c r="B19" s="7">
+        <f>B12-B17</f>
+        <v>-21500</v>
+      </c>
+      <c r="C19" s="7">
+        <f>C12-C17</f>
+        <v>-18212.5</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" ref="C19:N19" si="57">D12-D17</f>
+        <v>-15652.498750000002</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="57"/>
+        <v>-13614.949491122505</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="57"/>
+        <v>-11953.2812093108</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="57"/>
+        <v>-10561.964696709991</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="57"/>
+        <v>-9364.4644241665301</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="57"/>
+        <v>-8304.8567454995136</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="57"/>
+        <v>-7341.9607246330379</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="57"/>
+        <v>-6445.2022268247165</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="57"/>
+        <v>-5591.681308352272</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" si="57"/>
+        <v>-4764.0801970218054</v>
+      </c>
+      <c r="N19" s="7">
+        <f t="shared" si="57"/>
+        <v>-3949.16206130297</v>
+      </c>
+      <c r="O19" s="7">
+        <f t="shared" ref="O19:Y19" si="58">O12-O17</f>
+        <v>-3136.6874667591946</v>
+      </c>
+      <c r="P19" s="7">
+        <f t="shared" si="58"/>
+        <v>-2318.627848104552</v>
+      </c>
+      <c r="Q19" s="7">
+        <f t="shared" si="58"/>
+        <v>-1488.5913815418826</v>
+      </c>
+      <c r="R19" s="7">
+        <f t="shared" si="58"/>
+        <v>-641.40158519706165</v>
+      </c>
+      <c r="S19" s="7">
+        <f t="shared" si="58"/>
+        <v>227.21366943286557</v>
+      </c>
+      <c r="T19" s="7">
+        <f t="shared" si="58"/>
+        <v>1120.8529084152542</v>
+      </c>
+      <c r="U19" s="7">
+        <f t="shared" si="58"/>
+        <v>2042.6131980259524</v>
+      </c>
+      <c r="V19" s="7">
+        <f t="shared" si="58"/>
+        <v>2995.219264545427</v>
+      </c>
+      <c r="W19" s="7">
+        <f t="shared" si="58"/>
+        <v>3981.1208788085278</v>
+      </c>
+      <c r="X19" s="7">
+        <f t="shared" si="58"/>
+        <v>5002.5667211404798</v>
+      </c>
+      <c r="Y19" s="7">
+        <f t="shared" si="58"/>
+        <v>6061.6607354986481</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="5">
+        <f>$B$34</f>
+        <v>100000</v>
+      </c>
+      <c r="C20" s="5">
+        <f>B20+B19</f>
+        <v>78500</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" ref="D20:M20" si="59">C20+C19</f>
+        <v>60287.5</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="59"/>
+        <v>44635.001250000001</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="59"/>
+        <v>31020.051758877496</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="59"/>
+        <v>19066.770549566696</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="59"/>
+        <v>8504.8058528567053</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="59"/>
+        <v>-859.65857130982477</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="59"/>
+        <v>-9164.5153168093384</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="59"/>
+        <v>-16506.476041442376</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="59"/>
+        <v>-22951.678268267093</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="59"/>
+        <v>-28543.359576619365</v>
+      </c>
+      <c r="N20" s="5">
+        <f>M20+M19</f>
+        <v>-33307.43977364117</v>
+      </c>
+      <c r="O20" s="5">
+        <f>N20+N19</f>
+        <v>-37256.601834944144</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" ref="P20:Y20" si="60">O20+O19</f>
+        <v>-40393.289301703335</v>
+      </c>
+      <c r="Q20" s="5">
+        <f t="shared" si="60"/>
+        <v>-42711.917149807887</v>
+      </c>
+      <c r="R20" s="5">
+        <f t="shared" si="60"/>
+        <v>-44200.508531349769</v>
+      </c>
+      <c r="S20" s="5">
+        <f t="shared" si="60"/>
+        <v>-44841.910116546831</v>
+      </c>
+      <c r="T20" s="5">
+        <f t="shared" si="60"/>
+        <v>-44614.696447113965</v>
+      </c>
+      <c r="U20" s="5">
+        <f t="shared" si="60"/>
+        <v>-43493.843538698711</v>
+      </c>
+      <c r="V20" s="5">
+        <f t="shared" si="60"/>
+        <v>-41451.230340672759</v>
+      </c>
+      <c r="W20" s="5">
+        <f t="shared" si="60"/>
+        <v>-38456.011076127332</v>
+      </c>
+      <c r="X20" s="5">
+        <f t="shared" si="60"/>
+        <v>-34474.890197318804</v>
+      </c>
+      <c r="Y20" s="5">
+        <f t="shared" si="60"/>
+        <v>-29472.323476178324</v>
+      </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="5">
-        <f>B16/B10</f>
-        <v>235.71428571428572</v>
-      </c>
-      <c r="C21" s="5">
-        <f t="shared" ref="C21:N21" si="62">C16/C10</f>
-        <v>127.93176972281448</v>
-      </c>
-      <c r="D21" s="5">
-        <f t="shared" si="62"/>
-        <v>90.897564384268406</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" si="62"/>
-        <v>71.492161773819788</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="62"/>
-        <v>59.132820032242769</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" si="62"/>
-        <v>50.318953575119707</v>
-      </c>
-      <c r="H21" s="5">
-        <f t="shared" si="62"/>
-        <v>43.566797487070552</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" si="62"/>
-        <v>38.143553737240119</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" si="62"/>
-        <v>33.646244500609377</v>
-      </c>
-      <c r="K21" s="5">
-        <f t="shared" si="62"/>
-        <v>29.83407997834404</v>
-      </c>
-      <c r="L21" s="5">
-        <f t="shared" si="62"/>
-        <v>26.552972606632807</v>
-      </c>
-      <c r="M21" s="5">
-        <f t="shared" si="62"/>
-        <v>23.698347423043359</v>
-      </c>
-      <c r="N21" s="5">
-        <f t="shared" si="62"/>
-        <v>21.195519398846812</v>
-      </c>
-      <c r="O21" s="5">
-        <f t="shared" ref="O21:Y21" si="63">O16/O10</f>
-        <v>18.988758106213261</v>
-      </c>
-      <c r="P21" s="5">
-        <f t="shared" si="63"/>
-        <v>17.03490891801161</v>
-      </c>
-      <c r="Q21" s="5">
-        <f t="shared" si="63"/>
-        <v>15.299520047771747</v>
-      </c>
-      <c r="R21" s="5">
-        <f t="shared" si="63"/>
-        <v>13.754402966498345</v>
-      </c>
-      <c r="S21" s="5">
-        <f t="shared" si="63"/>
-        <v>12.376041000118018</v>
-      </c>
-      <c r="T21" s="5">
-        <f t="shared" si="63"/>
-        <v>11.144515310744652</v>
-      </c>
-      <c r="U21" s="5">
-        <f t="shared" si="63"/>
-        <v>10.042755551213459</v>
-      </c>
-      <c r="V21" s="5">
-        <f t="shared" si="63"/>
-        <v>9.055999916532631</v>
-      </c>
-      <c r="W21" s="5">
-        <f t="shared" si="63"/>
-        <v>8.1713939604296417</v>
-      </c>
-      <c r="X21" s="5">
-        <f t="shared" si="63"/>
-        <v>7.3776839134892667</v>
-      </c>
-      <c r="Y21" s="5">
-        <f t="shared" si="63"/>
-        <v>6.6649761514050487</v>
-      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="5">
+        <f>B17/B10</f>
+        <v>26.5</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" ref="C22:N22" si="61">C17/C10</f>
+        <v>15.26056338028169</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="61"/>
+        <v>11.551293883261188</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="61"/>
+        <v>9.7139076327812166</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="61"/>
+        <v>8.6170815241397989</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="61"/>
+        <v>7.8842340550328744</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="61"/>
+        <v>7.354568571432254</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="61"/>
+        <v>6.9482773167131704</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="61"/>
+        <v>6.6215665392541654</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="61"/>
+        <v>6.3486367978025964</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="61"/>
+        <v>6.1134734562692259</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="61"/>
+        <v>5.9057315682531675</v>
+      </c>
+      <c r="N22" s="5">
+        <f t="shared" si="61"/>
+        <v>5.7185155629723585</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" ref="O22:Y22" si="62">O17/O10</f>
+        <v>5.5471098234251768</v>
+      </c>
+      <c r="P22" s="5">
+        <f t="shared" si="62"/>
+        <v>5.3882186071558822</v>
+      </c>
+      <c r="Q22" s="5">
+        <f t="shared" si="62"/>
+        <v>5.2394937140904458</v>
+      </c>
+      <c r="R22" s="5">
+        <f t="shared" si="62"/>
+        <v>5.0992319994710087</v>
+      </c>
+      <c r="S22" s="5">
+        <f t="shared" si="62"/>
+        <v>4.9661768409079583</v>
+      </c>
+      <c r="T22" s="5">
+        <f t="shared" si="62"/>
+        <v>4.8393851723563595</v>
+      </c>
+      <c r="U22" s="5">
+        <f t="shared" si="62"/>
+        <v>4.7181369192885292</v>
+      </c>
+      <c r="V22" s="5">
+        <f t="shared" si="62"/>
+        <v>4.6018724316554023</v>
+      </c>
+      <c r="W22" s="5">
+        <f t="shared" si="62"/>
+        <v>4.4901487301358021</v>
+      </c>
+      <c r="X22" s="5">
+        <f t="shared" si="62"/>
+        <v>4.3826085824351697</v>
+      </c>
+      <c r="Y22" s="5">
+        <f t="shared" si="62"/>
+        <v>4.2789584404579601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="5">
-        <f>B14/B9</f>
-        <v>28.571428571428573</v>
-      </c>
-      <c r="C22" s="5">
-        <f t="shared" ref="C22:Y22" si="64">C14/C9</f>
-        <v>26.455026455026452</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="B23" s="5">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5">
+        <v>10</v>
+      </c>
+      <c r="F23" s="5">
+        <v>10</v>
+      </c>
+      <c r="G23" s="5">
+        <v>10</v>
+      </c>
+      <c r="H23" s="5">
+        <v>10</v>
+      </c>
+      <c r="I23" s="5">
+        <v>10</v>
+      </c>
+      <c r="J23" s="5">
+        <v>10</v>
+      </c>
+      <c r="K23" s="5">
+        <v>10</v>
+      </c>
+      <c r="L23" s="5">
+        <v>10</v>
+      </c>
+      <c r="M23" s="5">
+        <v>10</v>
+      </c>
+      <c r="N23" s="5">
+        <v>10</v>
+      </c>
+      <c r="O23" s="5">
+        <v>10</v>
+      </c>
+      <c r="P23" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>10</v>
+      </c>
+      <c r="R23" s="5">
+        <v>10</v>
+      </c>
+      <c r="S23" s="5">
+        <v>10</v>
+      </c>
+      <c r="T23" s="5">
+        <v>10</v>
+      </c>
+      <c r="U23" s="5">
+        <v>10</v>
+      </c>
+      <c r="V23" s="5">
+        <v>10</v>
+      </c>
+      <c r="W23" s="5">
+        <v>10</v>
+      </c>
+      <c r="X23" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="5">
+        <f>$B$32*B5</f>
+        <v>20</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" ref="C24:N24" si="63">$B$32*C5</f>
+        <v>20.408163265306122</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="63"/>
+        <v>20.824656393169512</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="63"/>
+        <v>21.249649380785218</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="63"/>
+        <v>21.683315694678797</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="63"/>
+        <v>22.125832341508978</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="63"/>
+        <v>22.577379940315282</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="63"/>
+        <v>23.038142796240084</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="63"/>
+        <v>23.508308975755192</v>
+      </c>
+      <c r="K24" s="5">
+        <f t="shared" si="63"/>
+        <v>23.988070383423661</v>
+      </c>
+      <c r="L24" s="5">
+        <f t="shared" si="63"/>
+        <v>24.477622840228225</v>
+      </c>
+      <c r="M24" s="5">
+        <f t="shared" si="63"/>
+        <v>24.977166163498193</v>
+      </c>
+      <c r="N24" s="5">
+        <f t="shared" si="63"/>
+        <v>25.486904248467543</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" ref="O24:Y24" si="64">$B$32*O5</f>
+        <v>26.007045151497493</v>
+      </c>
+      <c r="P24" s="5">
         <f t="shared" si="64"/>
-        <v>24.495394865765235</v>
-      </c>
-      <c r="E22" s="5">
+        <v>26.537801174997444</v>
+      </c>
+      <c r="Q24" s="5">
         <f t="shared" si="64"/>
-        <v>22.680921172004844</v>
-      </c>
-      <c r="F22" s="5">
+        <v>27.079388954079025</v>
+      </c>
+      <c r="R24" s="5">
         <f t="shared" si="64"/>
-        <v>21.000852937041522</v>
-      </c>
-      <c r="G22" s="5">
+        <v>27.632029544978597</v>
+      </c>
+      <c r="S24" s="5">
         <f t="shared" si="64"/>
-        <v>19.445234200964371</v>
-      </c>
-      <c r="H22" s="5">
+        <v>28.195948515284282</v>
+      </c>
+      <c r="T24" s="5">
         <f t="shared" si="64"/>
-        <v>18.004846482374415</v>
-      </c>
-      <c r="I22" s="5">
+        <v>28.771376036004369</v>
+      </c>
+      <c r="U24" s="5">
         <f t="shared" si="64"/>
-        <v>16.67115415034668</v>
-      </c>
-      <c r="J22" s="5">
+        <v>29.358546975514663</v>
+      </c>
+      <c r="V24" s="5">
         <f t="shared" si="64"/>
-        <v>15.43625384291359</v>
-      </c>
-      <c r="K22" s="5">
+        <v>29.957700995423124</v>
+      </c>
+      <c r="W24" s="5">
         <f t="shared" si="64"/>
-        <v>14.292827632327398</v>
-      </c>
-      <c r="L22" s="5">
+        <v>30.569082648390946</v>
+      </c>
+      <c r="X24" s="5">
         <f t="shared" si="64"/>
-        <v>13.234099659562405</v>
-      </c>
-      <c r="M22" s="5">
+        <v>31.192941477949944</v>
+      </c>
+      <c r="Y24" s="5">
         <f t="shared" si="64"/>
-        <v>12.253795981076301</v>
-      </c>
-      <c r="N22" s="5">
-        <f t="shared" si="64"/>
-        <v>11.346107389885463</v>
-      </c>
-      <c r="O22" s="5">
-        <f t="shared" si="64"/>
-        <v>10.505654990634687</v>
-      </c>
-      <c r="P22" s="5">
-        <f t="shared" si="64"/>
-        <v>9.7274583246617485</v>
-      </c>
-      <c r="Q22" s="5">
-        <f t="shared" si="64"/>
-        <v>9.0069058561682844</v>
-      </c>
-      <c r="R22" s="5">
-        <f t="shared" si="64"/>
-        <v>8.3397276446002628</v>
-      </c>
-      <c r="S22" s="5">
-        <f t="shared" si="64"/>
-        <v>7.7219700412965393</v>
-      </c>
-      <c r="T22" s="5">
-        <f t="shared" si="64"/>
-        <v>7.1499722604597586</v>
-      </c>
-      <c r="U22" s="5">
-        <f t="shared" si="64"/>
-        <v>6.6203446856108865</v>
-      </c>
-      <c r="V22" s="5">
-        <f t="shared" si="64"/>
-        <v>6.1299487829730426</v>
-      </c>
-      <c r="W22" s="5">
-        <f t="shared" si="64"/>
-        <v>5.6758785027528171</v>
-      </c>
-      <c r="X22" s="5">
-        <f t="shared" si="64"/>
-        <v>5.2554430581044596</v>
-      </c>
-      <c r="Y22" s="5">
-        <f t="shared" si="64"/>
-        <v>4.8661509797263509</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="5">
-        <f>$B$31*B5</f>
-        <v>120</v>
-      </c>
-      <c r="C23" s="5">
-        <f t="shared" ref="C23:N23" si="65">$B$31*C5</f>
-        <v>126.31578947368421</v>
-      </c>
-      <c r="D23" s="5">
-        <f t="shared" si="65"/>
-        <v>132.9639889196676</v>
-      </c>
-      <c r="E23" s="5">
-        <f t="shared" si="65"/>
-        <v>139.9620935996501</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="65"/>
-        <v>147.32851957857906</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="65"/>
-        <v>155.08265218797794</v>
-      </c>
-      <c r="H23" s="5">
-        <f t="shared" si="65"/>
-        <v>163.24489703997685</v>
-      </c>
-      <c r="I23" s="5">
-        <f t="shared" si="65"/>
-        <v>171.83673372629141</v>
-      </c>
-      <c r="J23" s="5">
-        <f t="shared" si="65"/>
-        <v>180.88077234346466</v>
-      </c>
-      <c r="K23" s="5">
-        <f t="shared" si="65"/>
-        <v>190.4008129931207</v>
-      </c>
-      <c r="L23" s="5">
-        <f t="shared" si="65"/>
-        <v>200.42190841381128</v>
-      </c>
-      <c r="M23" s="5">
-        <f t="shared" si="65"/>
-        <v>210.97042990927508</v>
-      </c>
-      <c r="N23" s="5">
-        <f t="shared" si="65"/>
-        <v>222.07413674660535</v>
-      </c>
-      <c r="O23" s="5">
-        <f t="shared" ref="O23:Y23" si="66">$B$31*O5</f>
-        <v>233.76224920695302</v>
-      </c>
-      <c r="P23" s="5">
-        <f t="shared" si="66"/>
-        <v>246.06552548100319</v>
-      </c>
-      <c r="Q23" s="5">
-        <f t="shared" si="66"/>
-        <v>259.01634261158227</v>
-      </c>
-      <c r="R23" s="5">
-        <f t="shared" si="66"/>
-        <v>272.64878169640247</v>
-      </c>
-      <c r="S23" s="5">
-        <f t="shared" si="66"/>
-        <v>286.99871757516053</v>
-      </c>
-      <c r="T23" s="5">
-        <f t="shared" si="66"/>
-        <v>302.10391323701106</v>
-      </c>
-      <c r="U23" s="5">
-        <f t="shared" si="66"/>
-        <v>318.00411919685376</v>
-      </c>
-      <c r="V23" s="5">
-        <f t="shared" si="66"/>
-        <v>334.74117810195139</v>
-      </c>
-      <c r="W23" s="5">
-        <f t="shared" si="66"/>
-        <v>352.35913484415937</v>
-      </c>
-      <c r="X23" s="5">
-        <f t="shared" si="66"/>
-        <v>370.90435246753617</v>
-      </c>
-      <c r="Y23" s="5">
-        <f t="shared" si="66"/>
-        <v>390.42563417635387</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+        <v>31.82953212035709</v>
+      </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="29">
+        <f>3 + B10 / $B$36</f>
+        <v>3.1</v>
+      </c>
+      <c r="C25" s="29">
+        <f t="shared" ref="C25:Y25" si="65">3 + C10 / $B$36</f>
+        <v>3.1775000000000002</v>
+      </c>
+      <c r="D25" s="29">
+        <f t="shared" si="65"/>
+        <v>3.2389222499999999</v>
+      </c>
+      <c r="E25" s="29">
+        <f t="shared" si="65"/>
+        <v>3.2888251224195</v>
+      </c>
+      <c r="F25" s="29">
+        <f t="shared" si="65"/>
+        <v>3.3304675642375376</v>
+      </c>
+      <c r="G25" s="29">
+        <f t="shared" si="65"/>
+        <v>3.366196518562</v>
+      </c>
+      <c r="H25" s="29">
+        <f t="shared" si="65"/>
+        <v>3.3977146615216327</v>
+      </c>
+      <c r="I25" s="29">
+        <f t="shared" si="65"/>
+        <v>3.4262666651331841</v>
+      </c>
+      <c r="J25" s="29">
+        <f t="shared" si="65"/>
+        <v>3.4527696241197692</v>
+      </c>
+      <c r="K25" s="29">
+        <f t="shared" si="65"/>
+        <v>3.477904965764409</v>
+      </c>
+      <c r="L25" s="29">
+        <f t="shared" si="65"/>
+        <v>3.5021836198132288</v>
+      </c>
+      <c r="M25" s="29">
+        <f t="shared" si="65"/>
+        <v>3.525992508598327</v>
+      </c>
+      <c r="N25" s="29">
+        <f t="shared" si="65"/>
+        <v>3.5496279085404998</v>
+      </c>
+      <c r="O25" s="29">
+        <f t="shared" si="65"/>
+        <v>3.5733195297284173</v>
+      </c>
+      <c r="P25" s="29">
+        <f t="shared" si="65"/>
+        <v>3.5972479951672041</v>
+      </c>
+      <c r="Q25" s="29">
+        <f t="shared" si="65"/>
+        <v>3.6215576000377649</v>
+      </c>
+      <c r="R25" s="29">
+        <f t="shared" si="65"/>
+        <v>3.6463656770157571</v>
+      </c>
+      <c r="S25" s="29">
+        <f t="shared" si="65"/>
+        <v>3.6717695080301582</v>
+      </c>
+      <c r="T25" s="29">
+        <f t="shared" si="65"/>
+        <v>3.697851452981733</v>
+      </c>
+      <c r="U25" s="29">
+        <f t="shared" si="65"/>
+        <v>3.7246827760734211</v>
+      </c>
+      <c r="V25" s="29">
+        <f t="shared" si="65"/>
+        <v>3.7523265160961996</v>
+      </c>
+      <c r="W25" s="29">
+        <f t="shared" si="65"/>
+        <v>3.7808396515063944</v>
+      </c>
+      <c r="X25" s="29">
+        <f t="shared" si="65"/>
+        <v>3.8102747428644284</v>
+      </c>
+      <c r="Y25" s="29">
+        <f t="shared" si="65"/>
+        <v>3.8406811861647254</v>
+      </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
@@ -4242,41 +5126,47 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="29" spans="1:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="30" spans="1:25" ht="24" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="6">
-        <v>0.08</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="5">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0.02</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B32" s="5">
-        <v>4000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>29000</v>
+        <v>56</v>
+      </c>
+      <c r="B33" s="28">
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -4284,25 +5174,42 @@
         <v>11</v>
       </c>
       <c r="B34" s="5">
-        <v>150000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B35" s="27">
-        <v>-0.05</v>
+        <v>-0.02</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>40</v>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="30">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="28">
+        <f>60000/12</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A43" r:id="rId1" location="gid=0" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A44" r:id="rId1" location="gid=0" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
